--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9029,6 +9029,122 @@
       <c r="H299" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>276.9922222222222</v>
+      </c>
+      <c r="C300" t="n">
+        <v>283.7733333333333</v>
+      </c>
+      <c r="D300" t="n">
+        <v>294.5522222222222</v>
+      </c>
+      <c r="E300" t="n">
+        <v>299.6722222222222</v>
+      </c>
+      <c r="F300" t="n">
+        <v>291.5033333333333</v>
+      </c>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>262.2988888888889</v>
+      </c>
+      <c r="C301" t="n">
+        <v>260.1933333333333</v>
+      </c>
+      <c r="D301" t="n">
+        <v>278.2588888888889</v>
+      </c>
+      <c r="E301" t="n">
+        <v>297.3488888888889</v>
+      </c>
+      <c r="F301" t="n">
+        <v>278.8633333333333</v>
+      </c>
+      <c r="G301" t="n">
+        <v>308.5433333333333</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>264.5377777777778</v>
+      </c>
+      <c r="C302" t="n">
+        <v>268.1366666666667</v>
+      </c>
+      <c r="D302" t="n">
+        <v>287.9477777777778</v>
+      </c>
+      <c r="E302" t="n">
+        <v>294.2477777777778</v>
+      </c>
+      <c r="F302" t="n">
+        <v>280.4466666666667</v>
+      </c>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>281.3888888888889</v>
+      </c>
+      <c r="C303" t="n">
+        <v>287.1233333333333</v>
+      </c>
+      <c r="D303" t="n">
+        <v>292.9788888888889</v>
+      </c>
+      <c r="E303" t="n">
+        <v>305.0188888888889</v>
+      </c>
+      <c r="F303" t="n">
+        <v>290.9133333333333</v>
+      </c>
+      <c r="G303" t="n">
+        <v>310.2933333333333</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9043,7 +9159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12091,6 +12207,46 @@
       </c>
       <c r="B304" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -12259,28 +12415,28 @@
         <v>0.0518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4151269535086608</v>
+        <v>0.4453744257834183</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04318983172171387</v>
+        <v>0.05036869363336549</v>
       </c>
       <c r="M2" t="n">
-        <v>10.19863764695657</v>
+        <v>10.19149006060637</v>
       </c>
       <c r="N2" t="n">
-        <v>174.2363729698891</v>
+        <v>173.9388585217044</v>
       </c>
       <c r="O2" t="n">
-        <v>13.19986261178082</v>
+        <v>13.18858819289254</v>
       </c>
       <c r="P2" t="n">
-        <v>251.1941854135164</v>
+        <v>250.8770452488816</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -12336,28 +12492,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3793166022555665</v>
+        <v>0.4061093537701257</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.037712528775944</v>
+        <v>0.04370017014861138</v>
       </c>
       <c r="M3" t="n">
-        <v>10.29482698871175</v>
+        <v>10.29221677270879</v>
       </c>
       <c r="N3" t="n">
-        <v>168.0851775193488</v>
+        <v>168.4052949394632</v>
       </c>
       <c r="O3" t="n">
-        <v>12.96476677458368</v>
+        <v>12.97710657039785</v>
       </c>
       <c r="P3" t="n">
-        <v>256.7838668088253</v>
+        <v>256.503088790127</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -12413,28 +12569,28 @@
         <v>0.0504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4582220192192298</v>
+        <v>0.4961442981139593</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06964246297410337</v>
+        <v>0.0817769753109483</v>
       </c>
       <c r="M4" t="n">
-        <v>8.89949391382005</v>
+        <v>8.935336837860651</v>
       </c>
       <c r="N4" t="n">
-        <v>126.0305232760967</v>
+        <v>126.6513805014345</v>
       </c>
       <c r="O4" t="n">
-        <v>11.2263316927702</v>
+        <v>11.25394955122132</v>
       </c>
       <c r="P4" t="n">
-        <v>265.2656157855494</v>
+        <v>264.864169052175</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -12490,28 +12646,28 @@
         <v>0.0477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4560525569899332</v>
+        <v>0.4921744450276635</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07126260404443541</v>
+        <v>0.08333003952511109</v>
       </c>
       <c r="M5" t="n">
-        <v>8.656193229895221</v>
+        <v>8.688134545243116</v>
       </c>
       <c r="N5" t="n">
-        <v>123.7077506901316</v>
+        <v>123.963119034588</v>
       </c>
       <c r="O5" t="n">
-        <v>11.12239860327491</v>
+        <v>11.13387259827361</v>
       </c>
       <c r="P5" t="n">
-        <v>276.0321712697357</v>
+        <v>275.6545971514146</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -12567,28 +12723,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4307720193946621</v>
+        <v>0.4541436921499606</v>
       </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04307068249393087</v>
+        <v>0.04904588932626841</v>
       </c>
       <c r="M6" t="n">
-        <v>10.96579205763541</v>
+        <v>10.89102759681038</v>
       </c>
       <c r="N6" t="n">
-        <v>189.8522611405514</v>
+        <v>188.1525987205422</v>
       </c>
       <c r="O6" t="n">
-        <v>13.77868865823419</v>
+        <v>13.71687277481796</v>
       </c>
       <c r="P6" t="n">
-        <v>267.6735236155868</v>
+        <v>267.4327270851256</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -12638,28 +12794,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1011811486206312</v>
+        <v>-0.1404846920663344</v>
       </c>
       <c r="J7" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001074898886889941</v>
+        <v>0.002094482944924314</v>
       </c>
       <c r="M7" t="n">
-        <v>18.47948759994388</v>
+        <v>18.5071309298243</v>
       </c>
       <c r="N7" t="n">
-        <v>457.5641559956687</v>
+        <v>457.5230809383353</v>
       </c>
       <c r="O7" t="n">
-        <v>21.39074930888744</v>
+        <v>21.38978917470519</v>
       </c>
       <c r="P7" t="n">
-        <v>333.5372597469666</v>
+        <v>333.9318557469023</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -12696,7 +12852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24490,6 +24646,166 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.52961971616159,174.46035264552884</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.53037957042699,174.46040546928162</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.53119229037048,174.46058384564378</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.5320633938046,174.46095777149017</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-35.532775523348356,174.46158122659472</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.52961776235306,174.46019062706375</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.53038482781441,174.46014550931193</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.53121778218771,174.46040688832613</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.53207348999171,174.46093532281938</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-35.532854323815286,174.46148053716578</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-35.53319462578119,174.46237049000783</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.52961806007768,174.46021531454159</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.530383056834495,174.4602330813575</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.5312026234185,174.46051211664198</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.532086966053406,174.46090535904182</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.532844452980605,174.46149314990834</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.52962030075476,174.46040112609953</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.53037882346691,174.46044240167328</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.53119475194835,174.46056675811755</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.53204015952211,174.46100943239801</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.532779201536485,174.461576526697</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-35.533183302403714,174.46238392788632</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -12260,7 +12260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12351,35 +12351,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -12438,27 +12443,28 @@
       <c r="P2" t="n">
         <v>250.8770452488816</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.45729834509098 -35.529582847159006, 174.4675069531453 -35.529705773915175)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.457298345091</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.52958284715901</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4675069531453</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.52970577391518</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4624026491181</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.52964431053709</v>
       </c>
     </row>
@@ -12515,27 +12521,28 @@
       <c r="P3" t="n">
         <v>256.503088790127</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.4572769793963 -35.530442803251105, 174.46748362167145 -35.53023620751982)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4572769793963</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.53044280325111</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4674836216714</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.53023620751982</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4623803005339</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.53033950538546</v>
       </c>
     </row>
@@ -12592,27 +12599,28 @@
       <c r="P4" t="n">
         <v>264.864169052175</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.45738477800515 -35.53165309384141, 174.467439169933 -35.53020452630769)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4573847780051</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.53165309384141</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.467439169933</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.53020452630769</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4624119739691</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.53092881007456</v>
       </c>
     </row>
@@ -12669,27 +12677,28 @@
       <c r="P5" t="n">
         <v>275.6545971514146</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.45806221067218 -35.53336560424527, 174.46700420532002 -35.52934379606916)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4580622106722</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.53336560424527</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.46700420532</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.52934379606916</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4625332079961</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.53135470015722</v>
       </c>
     </row>
@@ -12746,27 +12755,28 @@
       <c r="P6" t="n">
         <v>267.4327270851256</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.45925907956402 -35.53459279710185, 174.46662827892936 -35.52882535327312)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.459259079564</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.53459279710185</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4666282789294</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.52882535327312</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4629436792467</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.53170907518749</v>
       </c>
     </row>
@@ -12817,27 +12827,28 @@
       <c r="P7" t="n">
         <v>333.9318557469023</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.46000119224985 -35.5351910335298, 174.4671043486573 -35.52920537251343)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4600011922498</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.5351910335298</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4671043486573</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.52920537251343</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.4635527704536</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.53219820302161</v>
       </c>
     </row>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9143,6 +9143,66 @@
         <v>310.2933333333333</v>
       </c>
       <c r="H303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>267.8455555555556</v>
+      </c>
+      <c r="C304" t="n">
+        <v>281.8033333333333</v>
+      </c>
+      <c r="D304" t="n">
+        <v>281.9755555555556</v>
+      </c>
+      <c r="E304" t="n">
+        <v>289.2455555555555</v>
+      </c>
+      <c r="F304" t="n">
+        <v>284.2433333333333</v>
+      </c>
+      <c r="G304" t="n">
+        <v>306.1133333333333</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>297.3588888888889</v>
+      </c>
+      <c r="C305" t="n">
+        <v>293.6333333333333</v>
+      </c>
+      <c r="D305" t="n">
+        <v>296.5388888888889</v>
+      </c>
+      <c r="E305" t="n">
+        <v>316.7388888888889</v>
+      </c>
+      <c r="F305" t="n">
+        <v>296.2133333333333</v>
+      </c>
+      <c r="G305" t="n">
+        <v>308.3333333333333</v>
+      </c>
+      <c r="H305" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9159,7 +9219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12247,6 +12307,26 @@
       </c>
       <c r="B308" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -12420,28 +12500,28 @@
         <v>0.0518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4453744257834183</v>
+        <v>0.4772906174927741</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05036869363336549</v>
+        <v>0.05694884034001535</v>
       </c>
       <c r="M2" t="n">
-        <v>10.19149006060637</v>
+        <v>10.26533078068349</v>
       </c>
       <c r="N2" t="n">
-        <v>173.9388585217044</v>
+        <v>177.1132844980313</v>
       </c>
       <c r="O2" t="n">
-        <v>13.18858819289254</v>
+        <v>13.30839150679117</v>
       </c>
       <c r="P2" t="n">
-        <v>250.8770452488816</v>
+        <v>250.5396206180535</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12498,28 +12578,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4061093537701257</v>
+        <v>0.4390724806388388</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04370017014861138</v>
+        <v>0.05056795688610138</v>
       </c>
       <c r="M3" t="n">
-        <v>10.29221677270879</v>
+        <v>10.34030675634147</v>
       </c>
       <c r="N3" t="n">
-        <v>168.4052949394632</v>
+        <v>170.4969770510987</v>
       </c>
       <c r="O3" t="n">
-        <v>12.97710657039785</v>
+        <v>13.0574491019915</v>
       </c>
       <c r="P3" t="n">
-        <v>256.503088790127</v>
+        <v>256.1549265251511</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12576,28 +12656,28 @@
         <v>0.0504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4961442981139593</v>
+        <v>0.5153020839391732</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0817769753109483</v>
+        <v>0.08814899451927949</v>
       </c>
       <c r="M4" t="n">
-        <v>8.935336837860651</v>
+        <v>8.956765946625321</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6513805014345</v>
+        <v>127.0970230467717</v>
       </c>
       <c r="O4" t="n">
-        <v>11.25394955122132</v>
+        <v>11.27373154934832</v>
       </c>
       <c r="P4" t="n">
-        <v>264.864169052175</v>
+        <v>264.6596306669876</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12654,28 +12734,28 @@
         <v>0.0477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4921744450276635</v>
+        <v>0.5153111885228371</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08333003952511109</v>
+        <v>0.09011644662733287</v>
       </c>
       <c r="M5" t="n">
-        <v>8.688134545243116</v>
+        <v>8.726428583795999</v>
       </c>
       <c r="N5" t="n">
-        <v>123.963119034588</v>
+        <v>125.9185297737165</v>
       </c>
       <c r="O5" t="n">
-        <v>11.13387259827361</v>
+        <v>11.22134260120938</v>
       </c>
       <c r="P5" t="n">
-        <v>275.6545971514146</v>
+        <v>275.4106824063262</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12732,28 +12812,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4541436921499606</v>
+        <v>0.4731267848731199</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04904588932626841</v>
+        <v>0.0536051579674548</v>
       </c>
       <c r="M6" t="n">
-        <v>10.89102759681038</v>
+        <v>10.88355677247111</v>
       </c>
       <c r="N6" t="n">
-        <v>188.1525987205422</v>
+        <v>187.9282220640093</v>
       </c>
       <c r="O6" t="n">
-        <v>13.71687277481796</v>
+        <v>13.70869147891254</v>
       </c>
       <c r="P6" t="n">
-        <v>267.4327270851256</v>
+        <v>267.2354731981463</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12804,28 +12884,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1404846920663344</v>
+        <v>-0.1821195052514367</v>
       </c>
       <c r="J7" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K7" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002094482944924314</v>
+        <v>0.003551668170392541</v>
       </c>
       <c r="M7" t="n">
-        <v>18.5071309298243</v>
+        <v>18.54342460653723</v>
       </c>
       <c r="N7" t="n">
-        <v>457.5230809383353</v>
+        <v>458.0469810875367</v>
       </c>
       <c r="O7" t="n">
-        <v>21.38978917470519</v>
+        <v>21.40203217191154</v>
       </c>
       <c r="P7" t="n">
-        <v>333.9318557469023</v>
+        <v>334.3527215595605</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -12863,7 +12943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H303"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24817,6 +24897,90 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.52961849993253,174.4602517882992</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.53038000967884,174.4603837508299</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.53121196728068,174.4604472540097</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.532108703490586,174.460857026191</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.532820783752946,174.46152339392467</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-35.533210349097274,174.46235183054745</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.52962242400675,174.46057722194047</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.53037737187934,174.4605141717805</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.53118918210349,174.46060542226425</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.53198922943612,174.46112267403248</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-35.53274616017911,174.46161874610206</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-35.5331959845864,174.46236887746215</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9203,6 +9203,120 @@
         <v>308.3333333333333</v>
       </c>
       <c r="H305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>288.8888888888889</v>
+      </c>
+      <c r="C306" t="n">
+        <v>285.2533333333333</v>
+      </c>
+      <c r="D306" t="n">
+        <v>282.0488888888889</v>
+      </c>
+      <c r="E306" t="n">
+        <v>275.3288888888889</v>
+      </c>
+      <c r="F306" t="n">
+        <v>282.9633333333333</v>
+      </c>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>264.0188888888889</v>
+      </c>
+      <c r="C307" t="n">
+        <v>266.5933333333333</v>
+      </c>
+      <c r="D307" t="n">
+        <v>266.0688888888889</v>
+      </c>
+      <c r="E307" t="n">
+        <v>280.8688888888889</v>
+      </c>
+      <c r="F307" t="n">
+        <v>270.4233333333333</v>
+      </c>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>299.9955555555555</v>
+      </c>
+      <c r="C308" t="n">
+        <v>297.7833333333333</v>
+      </c>
+      <c r="D308" t="n">
+        <v>294.4355555555555</v>
+      </c>
+      <c r="E308" t="n">
+        <v>291.7755555555556</v>
+      </c>
+      <c r="F308" t="n">
+        <v>286.6033333333333</v>
+      </c>
+      <c r="G308" t="n">
+        <v>320.7233333333333</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>272.3855555555556</v>
+      </c>
+      <c r="C309" t="n">
+        <v>279.2133333333333</v>
+      </c>
+      <c r="D309" t="n">
+        <v>270.3155555555555</v>
+      </c>
+      <c r="E309" t="n">
+        <v>288.1655555555556</v>
+      </c>
+      <c r="F309" t="n">
+        <v>277.2233333333333</v>
+      </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9219,7 +9333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12327,6 +12441,46 @@
       </c>
       <c r="B310" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12654,28 @@
         <v>0.0518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4772906174927741</v>
+        <v>0.5335165758082053</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05694884034001535</v>
+        <v>0.06960749048701742</v>
       </c>
       <c r="M2" t="n">
-        <v>10.26533078068349</v>
+        <v>10.38108308653405</v>
       </c>
       <c r="N2" t="n">
-        <v>177.1132844980313</v>
+        <v>181.9571252132068</v>
       </c>
       <c r="O2" t="n">
-        <v>13.30839150679117</v>
+        <v>13.48914842431526</v>
       </c>
       <c r="P2" t="n">
-        <v>250.5396206180535</v>
+        <v>249.9416692624652</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12578,28 +12732,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4390724806388388</v>
+        <v>0.4843642789017811</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K3" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05056795688610138</v>
+        <v>0.06115615288453757</v>
       </c>
       <c r="M3" t="n">
-        <v>10.34030675634147</v>
+        <v>10.37306064355864</v>
       </c>
       <c r="N3" t="n">
-        <v>170.4969770510987</v>
+        <v>172.8233928629916</v>
       </c>
       <c r="O3" t="n">
-        <v>13.0574491019915</v>
+        <v>13.14623112770316</v>
       </c>
       <c r="P3" t="n">
-        <v>256.1549265251511</v>
+        <v>255.6734144018691</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12656,28 +12810,28 @@
         <v>0.0504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5153020839391732</v>
+        <v>0.5163889378571657</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08814899451927949</v>
+        <v>0.09008794773345363</v>
       </c>
       <c r="M4" t="n">
-        <v>8.956765946625321</v>
+        <v>8.972320275591455</v>
       </c>
       <c r="N4" t="n">
-        <v>127.0970230467717</v>
+        <v>127.0246573369114</v>
       </c>
       <c r="O4" t="n">
-        <v>11.27373154934832</v>
+        <v>11.27052160891018</v>
       </c>
       <c r="P4" t="n">
-        <v>264.6596306669876</v>
+        <v>264.6479833491809</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12734,28 +12888,28 @@
         <v>0.0477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5153111885228371</v>
+        <v>0.501472641683629</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K5" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09011644662733287</v>
+        <v>0.08780122028666393</v>
       </c>
       <c r="M5" t="n">
-        <v>8.726428583795999</v>
+        <v>8.692166431662836</v>
       </c>
       <c r="N5" t="n">
-        <v>125.9185297737165</v>
+        <v>125.0151400457203</v>
       </c>
       <c r="O5" t="n">
-        <v>11.22134260120938</v>
+        <v>11.1810169504263</v>
       </c>
       <c r="P5" t="n">
-        <v>275.4106824063262</v>
+        <v>275.5572371625797</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12812,28 +12966,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4731267848731199</v>
+        <v>0.4729243193998517</v>
       </c>
       <c r="J6" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K6" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0536051579674548</v>
+        <v>0.05524459934826231</v>
       </c>
       <c r="M6" t="n">
-        <v>10.88355677247111</v>
+        <v>10.80305103529289</v>
       </c>
       <c r="N6" t="n">
-        <v>187.9282220640093</v>
+        <v>185.6826225966513</v>
       </c>
       <c r="O6" t="n">
-        <v>13.70869147891254</v>
+        <v>13.6265411090508</v>
       </c>
       <c r="P6" t="n">
-        <v>267.2354731981463</v>
+        <v>267.2375942893636</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -12884,28 +13038,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1821195052514367</v>
+        <v>-0.1901993659673044</v>
       </c>
       <c r="J7" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K7" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003551668170392541</v>
+        <v>0.003908404021676248</v>
       </c>
       <c r="M7" t="n">
-        <v>18.54342460653723</v>
+        <v>18.50343949712171</v>
       </c>
       <c r="N7" t="n">
-        <v>458.0469810875367</v>
+        <v>456.5003917145812</v>
       </c>
       <c r="O7" t="n">
-        <v>21.40203217191154</v>
+        <v>21.3658697860532</v>
       </c>
       <c r="P7" t="n">
-        <v>334.3527215595605</v>
+        <v>334.4349872485068</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -12943,7 +13097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24981,6 +25135,162 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.529621297930845,174.46048382608745</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.53037924042811,174.46042178568163</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>-35.53121185254695,174.4604480504626</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-35.532169179046946,174.4607225593795</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-35.53282876354604,174.4615131975243</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-35.52961799107694,174.46020959292764</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-35.5303834009283,174.4602160667306</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>-35.53123685394577,174.4602744960804</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>-35.53214510472316,174.46077608846778</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>-35.53290694053799,174.4614133045575</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.529622774533514,174.46060629558067</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.53037644649788,174.46055992384365</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>-35.53119247290281,174.4605825785603</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>-35.532097709236055,174.46088147175217</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>-35.53280607100725,174.46154219353255</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>-35.5331158150443,174.46246401756378</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-35.52961910362529,174.4603018493585</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-35.53038058716643,174.46035519712885</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>-35.53123020987687,174.4603206179697</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>-35.53211339668869,174.46084659092966</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>-35.532864547920596,174.46146747301657</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9319,6 +9319,36 @@
       <c r="H309" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>292.0322222222222</v>
+      </c>
+      <c r="C310" t="n">
+        <v>283.8933333333333</v>
+      </c>
+      <c r="D310" t="n">
+        <v>282.8522222222222</v>
+      </c>
+      <c r="E310" t="n">
+        <v>282.7122222222222</v>
+      </c>
+      <c r="F310" t="n">
+        <v>274.9933333333333</v>
+      </c>
+      <c r="G310" t="n">
+        <v>301.6133333333333</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9333,7 +9363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B314"/>
+  <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12481,6 +12511,16 @@
       </c>
       <c r="B314" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -12654,28 +12694,28 @@
         <v>0.0518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5335165758082053</v>
+        <v>0.5549013228364703</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06960749048701742</v>
+        <v>0.07437432667170341</v>
       </c>
       <c r="M2" t="n">
-        <v>10.38108308653405</v>
+        <v>10.44410951939129</v>
       </c>
       <c r="N2" t="n">
-        <v>181.9571252132068</v>
+        <v>184.090940877387</v>
       </c>
       <c r="O2" t="n">
-        <v>13.48914842431526</v>
+        <v>13.5680116773751</v>
       </c>
       <c r="P2" t="n">
-        <v>249.9416692624652</v>
+        <v>249.7137133630227</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12732,28 +12772,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4843642789017811</v>
+        <v>0.4963563777354813</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K3" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06115615288453757</v>
+        <v>0.06420273445643299</v>
       </c>
       <c r="M3" t="n">
-        <v>10.37306064355864</v>
+        <v>10.38411963150806</v>
       </c>
       <c r="N3" t="n">
-        <v>172.8233928629916</v>
+        <v>173.0811479827175</v>
       </c>
       <c r="O3" t="n">
-        <v>13.14623112770316</v>
+        <v>13.15603085975088</v>
       </c>
       <c r="P3" t="n">
-        <v>255.6734144018691</v>
+        <v>255.5456447262765</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12810,28 +12850,28 @@
         <v>0.0504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5163889378571657</v>
+        <v>0.5202541674808259</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09008794773345363</v>
+        <v>0.0919407886805429</v>
       </c>
       <c r="M4" t="n">
-        <v>8.972320275591455</v>
+        <v>8.958007034901797</v>
       </c>
       <c r="N4" t="n">
-        <v>127.0246573369114</v>
+        <v>126.6557190479901</v>
       </c>
       <c r="O4" t="n">
-        <v>11.27052160891018</v>
+        <v>11.25414230619065</v>
       </c>
       <c r="P4" t="n">
-        <v>264.6479833491809</v>
+        <v>264.6063742230893</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12888,28 +12928,28 @@
         <v>0.0477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.501472641683629</v>
+        <v>0.4971663498667925</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K5" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08780122028666393</v>
+        <v>0.08698675530897571</v>
       </c>
       <c r="M5" t="n">
-        <v>8.692166431662836</v>
+        <v>8.682107244206376</v>
       </c>
       <c r="N5" t="n">
-        <v>125.0151400457203</v>
+        <v>124.6959430893273</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1810169504263</v>
+        <v>11.16673376996726</v>
       </c>
       <c r="P5" t="n">
-        <v>275.5572371625797</v>
+        <v>275.6030004000389</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -12966,28 +13006,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4729243193998517</v>
+        <v>0.4693680459821833</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K6" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05524459934826231</v>
+        <v>0.05488993271478959</v>
       </c>
       <c r="M6" t="n">
-        <v>10.80305103529289</v>
+        <v>10.7808491550202</v>
       </c>
       <c r="N6" t="n">
-        <v>185.6826225966513</v>
+        <v>185.0632633689441</v>
       </c>
       <c r="O6" t="n">
-        <v>13.6265411090508</v>
+        <v>13.60379591764534</v>
       </c>
       <c r="P6" t="n">
-        <v>267.2375942893636</v>
+        <v>267.274857137739</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13038,28 +13078,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.1901993659673044</v>
+        <v>-0.2151458942912214</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K7" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003908404021676248</v>
+        <v>0.005010372697145327</v>
       </c>
       <c r="M7" t="n">
-        <v>18.50343949712171</v>
+        <v>18.53752548243463</v>
       </c>
       <c r="N7" t="n">
-        <v>456.5003917145812</v>
+        <v>457.7730358195741</v>
       </c>
       <c r="O7" t="n">
-        <v>21.3658697860532</v>
+        <v>21.39563123208974</v>
       </c>
       <c r="P7" t="n">
-        <v>334.4349872485068</v>
+        <v>334.6894323312306</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13097,7 +13137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25291,6 +25331,48 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-35.529621715841536,174.46051848657126</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-35.5303795436704,174.460406792233</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-35.531210595690794,174.46045677524177</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-35.53213709442862,174.46079389928235</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-35.53287845020799,174.46144970895466</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-35.533239466341996,174.46231727597197</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9349,6 +9349,62 @@
       <c r="H310" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>268.4766666666667</v>
+      </c>
+      <c r="C311" t="n">
+        <v>271.44</v>
+      </c>
+      <c r="D311" t="n">
+        <v>274.5166666666667</v>
+      </c>
+      <c r="E311" t="n">
+        <v>284.4366666666667</v>
+      </c>
+      <c r="F311" t="n">
+        <v>276.74</v>
+      </c>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>269.02</v>
+      </c>
+      <c r="C312" t="n">
+        <v>272.71</v>
+      </c>
+      <c r="D312" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="E312" t="n">
+        <v>289.19</v>
+      </c>
+      <c r="F312" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9363,7 +9419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B315"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12521,6 +12577,26 @@
       </c>
       <c r="B315" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -12694,28 +12770,28 @@
         <v>0.0518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5549013228364703</v>
+        <v>0.5619276365182728</v>
       </c>
       <c r="J2" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07437432667170341</v>
+        <v>0.07718075789333045</v>
       </c>
       <c r="M2" t="n">
-        <v>10.44410951939129</v>
+        <v>10.40426918661015</v>
       </c>
       <c r="N2" t="n">
-        <v>184.090940877387</v>
+        <v>182.9726183603907</v>
       </c>
       <c r="O2" t="n">
-        <v>13.5680116773751</v>
+        <v>13.52673716608668</v>
       </c>
       <c r="P2" t="n">
-        <v>249.7137133630227</v>
+        <v>249.638541015777</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12772,28 +12848,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4963563777354813</v>
+        <v>0.5019528712524074</v>
       </c>
       <c r="J3" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K3" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06420273445643299</v>
+        <v>0.06650550382761078</v>
       </c>
       <c r="M3" t="n">
-        <v>10.38411963150806</v>
+        <v>10.33366836318342</v>
       </c>
       <c r="N3" t="n">
-        <v>173.0811479827175</v>
+        <v>171.9687845776489</v>
       </c>
       <c r="O3" t="n">
-        <v>13.15603085975088</v>
+        <v>13.11368691778361</v>
       </c>
       <c r="P3" t="n">
-        <v>255.5456447262765</v>
+        <v>255.4857913347797</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12850,28 +12926,28 @@
         <v>0.0504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5202541674808259</v>
+        <v>0.51916804791019</v>
       </c>
       <c r="J4" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0919407886805429</v>
+        <v>0.09291254593143761</v>
       </c>
       <c r="M4" t="n">
-        <v>8.958007034901797</v>
+        <v>8.913995806751911</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6557190479901</v>
+        <v>125.8127778411493</v>
       </c>
       <c r="O4" t="n">
-        <v>11.25414230619065</v>
+        <v>11.21662952232752</v>
       </c>
       <c r="P4" t="n">
-        <v>264.6063742230893</v>
+        <v>264.6180661957226</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -12928,28 +13004,28 @@
         <v>0.0477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4971663498667925</v>
+        <v>0.4947929791952382</v>
       </c>
       <c r="J5" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K5" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08698675530897571</v>
+        <v>0.08744545626315547</v>
       </c>
       <c r="M5" t="n">
-        <v>8.682107244206376</v>
+        <v>8.638931411331408</v>
       </c>
       <c r="N5" t="n">
-        <v>124.6959430893273</v>
+        <v>123.8974772086325</v>
       </c>
       <c r="O5" t="n">
-        <v>11.16673376996726</v>
+        <v>11.13092436451854</v>
       </c>
       <c r="P5" t="n">
-        <v>275.6030004000389</v>
+        <v>275.6282788211749</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13006,28 +13082,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4693680459821833</v>
+        <v>0.4641037659408125</v>
       </c>
       <c r="J6" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05488993271478959</v>
+        <v>0.05458934146167638</v>
       </c>
       <c r="M6" t="n">
-        <v>10.7808491550202</v>
+        <v>10.72749095234374</v>
       </c>
       <c r="N6" t="n">
-        <v>185.0632633689441</v>
+        <v>183.7795496632754</v>
       </c>
       <c r="O6" t="n">
-        <v>13.60379591764534</v>
+        <v>13.55653162365933</v>
       </c>
       <c r="P6" t="n">
-        <v>267.274857137739</v>
+        <v>267.3302247957108</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13081,7 +13157,7 @@
         <v>-0.2151458942912214</v>
       </c>
       <c r="J7" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K7" t="n">
         <v>246</v>
@@ -13137,7 +13213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25373,6 +25449,82 @@
         </is>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-35.52961858385386,174.46025874735003</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-35.5303823203319,174.4602694992731</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>-35.53122363706413,174.46036624508446</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>-35.532129600769174,174.46081056135517</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>-35.53286756112212,174.46146362280933</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.52961865610272,174.46026473850472</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.5303820371731,174.4602835005098</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-35.53121490168087,174.46042688412294</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-35.53210894491026,174.4608564893978</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-35.532875914962936,174.46145294844024</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9405,6 +9405,62 @@
       <c r="H312" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>276.8411111111111</v>
+      </c>
+      <c r="C313" t="n">
+        <v>263.3166666666667</v>
+      </c>
+      <c r="D313" t="n">
+        <v>276.5611111111111</v>
+      </c>
+      <c r="E313" t="n">
+        <v>277.6811111111111</v>
+      </c>
+      <c r="F313" t="n">
+        <v>271.0466666666667</v>
+      </c>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>261.2122222222222</v>
+      </c>
+      <c r="C314" t="n">
+        <v>259.3433333333333</v>
+      </c>
+      <c r="D314" t="n">
+        <v>262.5422222222222</v>
+      </c>
+      <c r="E314" t="n">
+        <v>277.2722222222222</v>
+      </c>
+      <c r="F314" t="n">
+        <v>257.7433333333333</v>
+      </c>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B317"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12597,6 +12653,26 @@
       </c>
       <c r="B317" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -12770,28 +12846,28 @@
         <v>0.0518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5619276365182728</v>
+        <v>0.5690253023400014</v>
       </c>
       <c r="J2" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07718075789333045</v>
+        <v>0.07988992730398714</v>
       </c>
       <c r="M2" t="n">
-        <v>10.40426918661015</v>
+        <v>10.38672927524911</v>
       </c>
       <c r="N2" t="n">
-        <v>182.9726183603907</v>
+        <v>182.2964239350562</v>
       </c>
       <c r="O2" t="n">
-        <v>13.52673716608668</v>
+        <v>13.50171929552145</v>
       </c>
       <c r="P2" t="n">
-        <v>249.638541015777</v>
+        <v>249.5624250309915</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12848,28 +12924,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5019528712524074</v>
+        <v>0.4914208469084513</v>
       </c>
       <c r="J3" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06650550382761078</v>
+        <v>0.06472870095990857</v>
       </c>
       <c r="M3" t="n">
-        <v>10.33366836318342</v>
+        <v>10.31799224195972</v>
       </c>
       <c r="N3" t="n">
-        <v>171.9687845776489</v>
+        <v>171.1476937126834</v>
       </c>
       <c r="O3" t="n">
-        <v>13.11368691778361</v>
+        <v>13.08234282201332</v>
       </c>
       <c r="P3" t="n">
-        <v>255.4857913347797</v>
+        <v>255.5987854899807</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -12926,28 +13002,28 @@
         <v>0.0504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.51916804791019</v>
+        <v>0.506264388349404</v>
       </c>
       <c r="J4" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09291254593143761</v>
+        <v>0.08950573649828164</v>
       </c>
       <c r="M4" t="n">
-        <v>8.913995806751911</v>
+        <v>8.90917898827178</v>
       </c>
       <c r="N4" t="n">
-        <v>125.8127778411493</v>
+        <v>125.7692153067801</v>
       </c>
       <c r="O4" t="n">
-        <v>11.21662952232752</v>
+        <v>11.21468748145841</v>
       </c>
       <c r="P4" t="n">
-        <v>264.6180661957226</v>
+        <v>264.7579594020572</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13004,28 +13080,28 @@
         <v>0.0477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4947929791952382</v>
+        <v>0.4788151854458272</v>
       </c>
       <c r="J5" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08744545626315547</v>
+        <v>0.08303627783679057</v>
       </c>
       <c r="M5" t="n">
-        <v>8.638931411331408</v>
+        <v>8.655035860260131</v>
       </c>
       <c r="N5" t="n">
-        <v>123.8974772086325</v>
+        <v>123.8518392378365</v>
       </c>
       <c r="O5" t="n">
-        <v>11.13092436451854</v>
+        <v>11.12887412265214</v>
       </c>
       <c r="P5" t="n">
-        <v>275.6282788211749</v>
+        <v>275.7992207383276</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13082,28 +13158,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4641037659408125</v>
+        <v>0.4407161504614548</v>
       </c>
       <c r="J6" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05458934146167638</v>
+        <v>0.04979495896235375</v>
       </c>
       <c r="M6" t="n">
-        <v>10.72749095234374</v>
+        <v>10.76482803199501</v>
       </c>
       <c r="N6" t="n">
-        <v>183.7795496632754</v>
+        <v>184.3527771228532</v>
       </c>
       <c r="O6" t="n">
-        <v>13.55653162365933</v>
+        <v>13.57765727667528</v>
       </c>
       <c r="P6" t="n">
-        <v>267.3302247957108</v>
+        <v>267.576987261394</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13157,7 +13233,7 @@
         <v>-0.2151458942912214</v>
       </c>
       <c r="J7" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
         <v>246</v>
@@ -13213,7 +13289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25525,6 +25601,82 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-35.52961969606908,174.46035097927725</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-35.53038413146942,174.4601799428027</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-35.53122043843973,174.46038844923154</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-35.53215895736036,174.46074528723744</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-35.53290305454903,174.46141827000196</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.5296176178477,174.4601786447544</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.530385017319624,174.4601361384045</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-35.53124237153447,174.4602361939086</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-35.532160734205554,174.46074133643404</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-35.53298599023887,174.4613122961608</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H314"/>
+  <dimension ref="A1:H315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9461,6 +9461,36 @@
       <c r="H314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>250.7122222222222</v>
+      </c>
+      <c r="C315" t="n">
+        <v>259.0033333333333</v>
+      </c>
+      <c r="D315" t="n">
+        <v>258.9922222222222</v>
+      </c>
+      <c r="E315" t="n">
+        <v>280.7422222222222</v>
+      </c>
+      <c r="F315" t="n">
+        <v>265.6633333333333</v>
+      </c>
+      <c r="G315" t="n">
+        <v>289.9933333333333</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -9475,7 +9505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B319"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12673,6 +12703,16 @@
       </c>
       <c r="B319" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -13289,7 +13329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H314"/>
+  <dimension ref="A1:H315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25677,6 +25717,48 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-35.52961622149195,174.4600628647715</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.5303850931215,174.4601323900415</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-35.5312479256168,174.4601976383141</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-35.53214565515923,174.46077486457804</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-35.53293661535633,174.4613753866022</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-35.5333146534947,174.46222804826388</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -12886,28 +12886,28 @@
         <v>0.0518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5690253023400014</v>
+        <v>0.5589900588612537</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07988992730398714</v>
+        <v>0.07762494771039974</v>
       </c>
       <c r="M2" t="n">
-        <v>10.38672927524911</v>
+        <v>10.39731682041956</v>
       </c>
       <c r="N2" t="n">
-        <v>182.2964239350562</v>
+        <v>182.3036576788393</v>
       </c>
       <c r="O2" t="n">
-        <v>13.50171929552145</v>
+        <v>13.50198717518423</v>
       </c>
       <c r="P2" t="n">
-        <v>249.5624250309915</v>
+        <v>249.670850706861</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -12964,28 +12964,28 @@
         <v>0.0315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4914208469084513</v>
+        <v>0.4844677467561432</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06472870095990857</v>
+        <v>0.0633865456679239</v>
       </c>
       <c r="M3" t="n">
-        <v>10.31799224195972</v>
+        <v>10.31889504616462</v>
       </c>
       <c r="N3" t="n">
-        <v>171.1476937126834</v>
+        <v>170.8566570322891</v>
       </c>
       <c r="O3" t="n">
-        <v>13.08234282201332</v>
+        <v>13.0712148261854</v>
       </c>
       <c r="P3" t="n">
-        <v>255.5987854899807</v>
+        <v>255.6738807396833</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13042,28 +13042,28 @@
         <v>0.0504</v>
       </c>
       <c r="I4" t="n">
-        <v>0.506264388349404</v>
+        <v>0.4918252017018633</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K4" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08950573649828164</v>
+        <v>0.08475644620862</v>
       </c>
       <c r="M4" t="n">
-        <v>8.90917898827178</v>
+        <v>8.943683493214593</v>
       </c>
       <c r="N4" t="n">
-        <v>125.7692153067801</v>
+        <v>126.574794726505</v>
       </c>
       <c r="O4" t="n">
-        <v>11.21468748145841</v>
+        <v>11.25054641901917</v>
       </c>
       <c r="P4" t="n">
-        <v>264.7579594020572</v>
+        <v>264.9154896032779</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13120,28 +13120,28 @@
         <v>0.0477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4788151854458272</v>
+        <v>0.4733057449924127</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K5" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08303627783679057</v>
+        <v>0.08176355251899459</v>
       </c>
       <c r="M5" t="n">
-        <v>8.655035860260131</v>
+        <v>8.651940355964935</v>
       </c>
       <c r="N5" t="n">
-        <v>123.8518392378365</v>
+        <v>123.6213555207887</v>
       </c>
       <c r="O5" t="n">
-        <v>11.12887412265214</v>
+        <v>11.11851408780817</v>
       </c>
       <c r="P5" t="n">
-        <v>275.7992207383276</v>
+        <v>275.8585597550355</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13198,28 +13198,28 @@
         <v>0.0316</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4407161504614548</v>
+        <v>0.4302104959923847</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K6" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04979495896235375</v>
+        <v>0.04778781224344886</v>
       </c>
       <c r="M6" t="n">
-        <v>10.76482803199501</v>
+        <v>10.77730197501855</v>
       </c>
       <c r="N6" t="n">
-        <v>184.3527771228532</v>
+        <v>184.3255583365292</v>
       </c>
       <c r="O6" t="n">
-        <v>13.57765727667528</v>
+        <v>13.57665490231409</v>
       </c>
       <c r="P6" t="n">
-        <v>267.576987261394</v>
+        <v>267.6885582535551</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13270,28 +13270,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2151458942912214</v>
+        <v>-0.250597962661793</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K7" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005010372697145327</v>
+        <v>0.006765189238161273</v>
       </c>
       <c r="M7" t="n">
-        <v>18.53752548243463</v>
+        <v>18.61218845491519</v>
       </c>
       <c r="N7" t="n">
-        <v>457.7730358195741</v>
+        <v>462.0205110239078</v>
       </c>
       <c r="O7" t="n">
-        <v>21.39563123208974</v>
+        <v>21.49466238450625</v>
       </c>
       <c r="P7" t="n">
-        <v>334.6894323312306</v>
+        <v>335.0557348755408</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -12877,13 +12877,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0432</v>
+        <v>0.0446</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0518</v>
+        <v>0.0563</v>
       </c>
       <c r="I2" t="n">
         <v>0.5590052028814237</v>
@@ -12955,13 +12955,13 @@
         <v>0.2010407299805139</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0286</v>
+        <v>0.0344</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0315</v>
+        <v>0.0409</v>
       </c>
       <c r="I3" t="n">
         <v>0.4844427166629393</v>
@@ -13036,10 +13036,10 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0435</v>
+        <v>0.0428</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0504</v>
+        <v>0.0498</v>
       </c>
       <c r="I4" t="n">
         <v>0.4918525680799518</v>
@@ -13111,13 +13111,13 @@
         <v>0.6013721409146936</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0433</v>
+        <v>0.0535</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0477</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="I5" t="n">
         <v>0.4733322593357332</v>
@@ -13189,13 +13189,13 @@
         <v>0.799353948561766</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0294</v>
+        <v>0.0346</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0316</v>
+        <v>0.041</v>
       </c>
       <c r="I6" t="n">
         <v>0.4301771228100527</v>
@@ -13266,9 +13266,15 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1448</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I7" t="n">
         <v>-0.2506278334267757</v>
       </c>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -497,7 +497,7 @@
         <v>289.85</v>
       </c>
       <c r="F2" t="n">
-        <v>284.17</v>
+        <v>287.53</v>
       </c>
       <c r="G2" t="n">
         <v>330.41</v>
@@ -527,7 +527,7 @@
         <v>285.63</v>
       </c>
       <c r="F3" t="n">
-        <v>279.31</v>
+        <v>280.74</v>
       </c>
       <c r="G3" t="n">
         <v>327.42</v>
@@ -557,7 +557,7 @@
         <v>286</v>
       </c>
       <c r="F4" t="n">
-        <v>277</v>
+        <v>277.07</v>
       </c>
       <c r="G4" t="n">
         <v>337.5</v>
@@ -587,7 +587,7 @@
         <v>273.11</v>
       </c>
       <c r="F5" t="n">
-        <v>253.9</v>
+        <v>251.11</v>
       </c>
       <c r="G5" t="n">
         <v>337.35</v>
@@ -617,7 +617,7 @@
         <v>271.66</v>
       </c>
       <c r="F6" t="n">
-        <v>246.76</v>
+        <v>249.9</v>
       </c>
       <c r="G6" t="n">
         <v>330.23</v>
@@ -647,7 +647,7 @@
         <v>268.67</v>
       </c>
       <c r="F7" t="n">
-        <v>270.81</v>
+        <v>270.17</v>
       </c>
       <c r="G7" t="n">
         <v>310.31</v>
@@ -677,7 +677,7 @@
         <v>263.27</v>
       </c>
       <c r="F8" t="n">
-        <v>252.2</v>
+        <v>253.38</v>
       </c>
       <c r="G8" t="n">
         <v>321.62</v>
@@ -705,7 +705,7 @@
         <v>260.39</v>
       </c>
       <c r="F9" t="n">
-        <v>245.29</v>
+        <v>245.72</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>275.05</v>
       </c>
       <c r="F11" t="n">
-        <v>249.68</v>
+        <v>246.54</v>
       </c>
       <c r="G11" t="n">
         <v>332.97</v>
@@ -785,7 +785,7 @@
         <v>270.63</v>
       </c>
       <c r="F12" t="n">
-        <v>268.87</v>
+        <v>271.83</v>
       </c>
       <c r="G12" t="n">
         <v>322.06</v>
@@ -815,7 +815,7 @@
         <v>292.58</v>
       </c>
       <c r="F13" t="n">
-        <v>283.38</v>
+        <v>282.67</v>
       </c>
       <c r="G13" t="n">
         <v>313.87</v>
@@ -845,7 +845,7 @@
         <v>285.35</v>
       </c>
       <c r="F14" t="n">
-        <v>287.22</v>
+        <v>285.22</v>
       </c>
       <c r="G14" t="n">
         <v>287.19</v>
@@ -875,7 +875,7 @@
         <v>270.95</v>
       </c>
       <c r="F15" t="n">
-        <v>263.99</v>
+        <v>263.56</v>
       </c>
       <c r="G15" t="n">
         <v>326.41</v>
@@ -905,7 +905,7 @@
         <v>273.39</v>
       </c>
       <c r="F16" t="n">
-        <v>257.97</v>
+        <v>258.11</v>
       </c>
       <c r="G16" t="n">
         <v>340.66</v>
@@ -935,7 +935,7 @@
         <v>276.3</v>
       </c>
       <c r="F17" t="n">
-        <v>276.29</v>
+        <v>275.11</v>
       </c>
       <c r="G17" t="n">
         <v>326.99</v>
@@ -965,7 +965,7 @@
         <v>264.85</v>
       </c>
       <c r="F18" t="n">
-        <v>256.75</v>
+        <v>253.82</v>
       </c>
       <c r="G18" t="n">
         <v>328.19</v>
@@ -995,7 +995,7 @@
         <v>272.4</v>
       </c>
       <c r="F19" t="n">
-        <v>258.93</v>
+        <v>260.25</v>
       </c>
       <c r="G19" t="n">
         <v>326.81</v>
@@ -1047,7 +1047,7 @@
         <v>266.71</v>
       </c>
       <c r="F21" t="n">
-        <v>249.1</v>
+        <v>248.96</v>
       </c>
       <c r="G21" t="n">
         <v>337.41</v>
@@ -1077,7 +1077,7 @@
         <v>252.42</v>
       </c>
       <c r="F22" t="n">
-        <v>246.69</v>
+        <v>245.87</v>
       </c>
       <c r="G22" t="n">
         <v>324.14</v>
@@ -1107,7 +1107,7 @@
         <v>276.91</v>
       </c>
       <c r="F23" t="n">
-        <v>260.26</v>
+        <v>263.01</v>
       </c>
       <c r="G23" t="n">
         <v>340.58</v>
@@ -1133,7 +1133,7 @@
         <v>271.47</v>
       </c>
       <c r="F24" t="n">
-        <v>263.15</v>
+        <v>264.79</v>
       </c>
       <c r="G24" t="n">
         <v>325.46</v>
@@ -1163,7 +1163,7 @@
         <v>257.7</v>
       </c>
       <c r="F25" t="n">
-        <v>263.88</v>
+        <v>261.31</v>
       </c>
       <c r="G25" t="n">
         <v>327.92</v>
@@ -1191,7 +1191,7 @@
         <v>280.12</v>
       </c>
       <c r="F26" t="n">
-        <v>266.56</v>
+        <v>264.81</v>
       </c>
       <c r="G26" t="n">
         <v>310.56</v>
@@ -1219,7 +1219,7 @@
         <v>265.05</v>
       </c>
       <c r="F27" t="n">
-        <v>256.25</v>
+        <v>255.25</v>
       </c>
       <c r="G27" t="n">
         <v>323.89</v>
@@ -1247,7 +1247,7 @@
         <v>272.11</v>
       </c>
       <c r="F28" t="n">
-        <v>260.16</v>
+        <v>262.12</v>
       </c>
       <c r="G28" t="n">
         <v>330.56</v>
@@ -1277,7 +1277,7 @@
         <v>277.6</v>
       </c>
       <c r="F29" t="n">
-        <v>272.15</v>
+        <v>274.72</v>
       </c>
       <c r="G29" t="n">
         <v>341.46</v>
@@ -1307,7 +1307,7 @@
         <v>276.33</v>
       </c>
       <c r="F30" t="n">
-        <v>264.57</v>
+        <v>266.43</v>
       </c>
       <c r="G30" t="n">
         <v>330.81</v>
@@ -1337,7 +1337,7 @@
         <v>277.14</v>
       </c>
       <c r="F31" t="n">
-        <v>255.28</v>
+        <v>253.85</v>
       </c>
       <c r="G31" t="n">
         <v>337.13</v>
@@ -1367,7 +1367,7 @@
         <v>294.46</v>
       </c>
       <c r="F32" t="n">
-        <v>291.65</v>
+        <v>294.26</v>
       </c>
       <c r="G32" t="n">
         <v>342.96</v>
@@ -1397,7 +1397,7 @@
         <v>295.26</v>
       </c>
       <c r="F33" t="n">
-        <v>289.52</v>
+        <v>292.7</v>
       </c>
       <c r="G33" t="n">
         <v>338.14</v>
@@ -1427,7 +1427,7 @@
         <v>282.13</v>
       </c>
       <c r="F34" t="n">
-        <v>268.57</v>
+        <v>269.78</v>
       </c>
       <c r="G34" t="n">
         <v>328.57</v>
@@ -1453,7 +1453,7 @@
         <v>276.85</v>
       </c>
       <c r="F35" t="n">
-        <v>261.97</v>
+        <v>261.4</v>
       </c>
       <c r="G35" t="n">
         <v>322.85</v>
@@ -1483,7 +1483,7 @@
         <v>304.86</v>
       </c>
       <c r="F36" t="n">
-        <v>282.13</v>
+        <v>281.56</v>
       </c>
       <c r="G36" t="n">
         <v>323.87</v>
@@ -1513,7 +1513,7 @@
         <v>287.75</v>
       </c>
       <c r="F37" t="n">
-        <v>278.02</v>
+        <v>281.52</v>
       </c>
       <c r="G37" t="n">
         <v>326.21</v>
@@ -1543,7 +1543,7 @@
         <v>281.76</v>
       </c>
       <c r="F38" t="n">
-        <v>269.01</v>
+        <v>270.26</v>
       </c>
       <c r="G38" t="n">
         <v>333.24</v>
@@ -1597,7 +1597,7 @@
         <v>281.2</v>
       </c>
       <c r="F40" t="n">
-        <v>278.6</v>
+        <v>281.71</v>
       </c>
       <c r="G40" t="n">
         <v>340.86</v>
@@ -1627,7 +1627,7 @@
         <v>286.37</v>
       </c>
       <c r="F41" t="n">
-        <v>266.72</v>
+        <v>269.58</v>
       </c>
       <c r="G41" t="n">
         <v>331.11</v>
@@ -1657,7 +1657,7 @@
         <v>286.44</v>
       </c>
       <c r="F42" t="n">
-        <v>268.75</v>
+        <v>266.93</v>
       </c>
       <c r="G42" t="n">
         <v>334.84</v>
@@ -1687,7 +1687,7 @@
         <v>297.87</v>
       </c>
       <c r="F43" t="n">
-        <v>283.63</v>
+        <v>282.77</v>
       </c>
       <c r="G43" t="n">
         <v>325.39</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>273.49</v>
+        <v>274.49</v>
       </c>
       <c r="G44" t="n">
         <v>337.17</v>
@@ -1745,7 +1745,7 @@
         <v>274.47</v>
       </c>
       <c r="F45" t="n">
-        <v>262.45</v>
+        <v>264.56</v>
       </c>
       <c r="G45" t="n">
         <v>342</v>
@@ -1775,7 +1775,7 @@
         <v>282.46</v>
       </c>
       <c r="F46" t="n">
-        <v>259.45</v>
+        <v>256.45</v>
       </c>
       <c r="G46" t="n">
         <v>318.66</v>
@@ -1805,7 +1805,7 @@
         <v>288.46</v>
       </c>
       <c r="F47" t="n">
-        <v>274.65</v>
+        <v>277.51</v>
       </c>
       <c r="G47" t="n">
         <v>344.73</v>
@@ -1835,7 +1835,7 @@
         <v>278.76</v>
       </c>
       <c r="F48" t="n">
-        <v>264.24</v>
+        <v>266.03</v>
       </c>
       <c r="G48" t="n">
         <v>329.82</v>
@@ -1865,7 +1865,7 @@
         <v>289.89</v>
       </c>
       <c r="F49" t="n">
-        <v>279.69</v>
+        <v>280.73</v>
       </c>
       <c r="G49" t="n">
         <v>329.13</v>
@@ -1921,7 +1921,7 @@
         <v>295.84</v>
       </c>
       <c r="F51" t="n">
-        <v>292.27</v>
+        <v>295.48</v>
       </c>
       <c r="G51" t="n">
         <v>325.38</v>
@@ -1951,7 +1951,7 @@
         <v>272.39</v>
       </c>
       <c r="F52" t="n">
-        <v>266.93</v>
+        <v>269.18</v>
       </c>
       <c r="G52" t="n">
         <v>326.12</v>
@@ -1981,7 +1981,7 @@
         <v>287.54</v>
       </c>
       <c r="F53" t="n">
-        <v>276</v>
+        <v>278.29</v>
       </c>
       <c r="G53" t="n">
         <v>343.3</v>
@@ -2011,7 +2011,7 @@
         <v>284.99</v>
       </c>
       <c r="F54" t="n">
-        <v>281.52</v>
+        <v>283.81</v>
       </c>
       <c r="G54" t="n">
         <v>342.17</v>
@@ -2041,7 +2041,7 @@
         <v>271.94</v>
       </c>
       <c r="F55" t="n">
-        <v>267.44</v>
+        <v>266.44</v>
       </c>
       <c r="G55" t="n">
         <v>336.3</v>
@@ -2071,7 +2071,7 @@
         <v>283.12</v>
       </c>
       <c r="F56" t="n">
-        <v>266.09</v>
+        <v>267.27</v>
       </c>
       <c r="G56" t="n">
         <v>344.38</v>
@@ -2101,7 +2101,7 @@
         <v>277.7</v>
       </c>
       <c r="F57" t="n">
-        <v>264.07</v>
+        <v>266.43</v>
       </c>
       <c r="G57" t="n">
         <v>342</v>
@@ -2127,7 +2127,7 @@
         <v>283.68</v>
       </c>
       <c r="F58" t="n">
-        <v>267.16</v>
+        <v>267.84</v>
       </c>
       <c r="G58" t="n">
         <v>332.34</v>
@@ -2155,7 +2155,7 @@
         <v>252.6</v>
       </c>
       <c r="F59" t="n">
-        <v>276.14</v>
+        <v>279.14</v>
       </c>
       <c r="G59" t="n">
         <v>326.76</v>
@@ -2177,7 +2177,7 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>271.52</v>
+        <v>272.63</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2229,7 +2229,7 @@
         <v>279.33</v>
       </c>
       <c r="F62" t="n">
-        <v>279.7</v>
+        <v>276.81</v>
       </c>
       <c r="G62" t="n">
         <v>330.87</v>
@@ -2259,7 +2259,7 @@
         <v>285.87</v>
       </c>
       <c r="F63" t="n">
-        <v>290.14</v>
+        <v>288.03</v>
       </c>
       <c r="G63" t="n">
         <v>328.46</v>
@@ -2289,7 +2289,7 @@
         <v>278.88</v>
       </c>
       <c r="F64" t="n">
-        <v>270.25</v>
+        <v>267.71</v>
       </c>
       <c r="G64" t="n">
         <v>321.62</v>
@@ -2317,7 +2317,7 @@
         <v>268.23</v>
       </c>
       <c r="F65" t="n">
-        <v>253.52</v>
+        <v>255.09</v>
       </c>
       <c r="G65" t="n">
         <v>323.5</v>
@@ -2347,7 +2347,7 @@
         <v>288.2</v>
       </c>
       <c r="F66" t="n">
-        <v>284.41</v>
+        <v>283.91</v>
       </c>
       <c r="G66" t="n">
         <v>339.17</v>
@@ -2374,7 +2374,9 @@
       <c r="E67" t="n">
         <v>301.36</v>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>323.22</v>
+      </c>
       <c r="G67" t="n">
         <v>333.49</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>269.18</v>
       </c>
       <c r="F68" t="n">
-        <v>257.66</v>
+        <v>259.52</v>
       </c>
       <c r="G68" t="n">
         <v>328.46</v>
@@ -2487,7 +2489,7 @@
         <v>278.03</v>
       </c>
       <c r="F71" t="n">
-        <v>261.6</v>
+        <v>263.21</v>
       </c>
       <c r="G71" t="n">
         <v>334.89</v>
@@ -2543,7 +2545,7 @@
         <v>280.85</v>
       </c>
       <c r="F73" t="n">
-        <v>275.99</v>
+        <v>276.74</v>
       </c>
       <c r="G73" t="n">
         <v>332.88</v>
@@ -2573,7 +2575,7 @@
         <v>274.33</v>
       </c>
       <c r="F74" t="n">
-        <v>302.38</v>
+        <v>299.52</v>
       </c>
       <c r="G74" t="n">
         <v>331.04</v>
@@ -2603,7 +2605,7 @@
         <v>289.4</v>
       </c>
       <c r="F75" t="n">
-        <v>285.98</v>
+        <v>283.16</v>
       </c>
       <c r="G75" t="n">
         <v>338.29</v>
@@ -2633,7 +2635,7 @@
         <v>288.12</v>
       </c>
       <c r="F76" t="n">
-        <v>265.44</v>
+        <v>263.3</v>
       </c>
       <c r="G76" t="n">
         <v>334.51</v>
@@ -2659,7 +2661,7 @@
         <v>286.07</v>
       </c>
       <c r="F77" t="n">
-        <v>265.96</v>
+        <v>263.6</v>
       </c>
       <c r="G77" t="n">
         <v>337.29</v>
@@ -2689,7 +2691,7 @@
         <v>272.25</v>
       </c>
       <c r="F78" t="n">
-        <v>255.66</v>
+        <v>255.73</v>
       </c>
       <c r="G78" t="n">
         <v>339.61</v>
@@ -2719,7 +2721,7 @@
         <v>271.42</v>
       </c>
       <c r="F79" t="n">
-        <v>251.92</v>
+        <v>254.17</v>
       </c>
       <c r="G79" t="n">
         <v>330.85</v>
@@ -2749,7 +2751,7 @@
         <v>277.36</v>
       </c>
       <c r="F80" t="n">
-        <v>262.04</v>
+        <v>261.43</v>
       </c>
       <c r="G80" t="n">
         <v>315.04</v>
@@ -2775,7 +2777,7 @@
         <v>289.13</v>
       </c>
       <c r="F81" t="n">
-        <v>291.69</v>
+        <v>289.9</v>
       </c>
       <c r="G81" t="n">
         <v>319.25</v>
@@ -2805,7 +2807,7 @@
         <v>291.35</v>
       </c>
       <c r="F82" t="n">
-        <v>282.05</v>
+        <v>281.19</v>
       </c>
       <c r="G82" t="n">
         <v>316.98</v>
@@ -2835,7 +2837,7 @@
         <v>282.83</v>
       </c>
       <c r="F83" t="n">
-        <v>280.08</v>
+        <v>282.54</v>
       </c>
       <c r="G83" t="n">
         <v>333.73</v>
@@ -2891,7 +2893,7 @@
         <v>278.11</v>
       </c>
       <c r="F85" t="n">
-        <v>267.24</v>
+        <v>268.06</v>
       </c>
       <c r="G85" t="n">
         <v>339.49</v>
@@ -2947,7 +2949,7 @@
         <v>281.68</v>
       </c>
       <c r="F87" t="n">
-        <v>262.57</v>
+        <v>259.86</v>
       </c>
       <c r="G87" t="n">
         <v>322.38</v>
@@ -3003,7 +3005,7 @@
         <v>285.25</v>
       </c>
       <c r="F89" t="n">
-        <v>273.66</v>
+        <v>275.91</v>
       </c>
       <c r="G89" t="n">
         <v>337.41</v>
@@ -3033,7 +3035,7 @@
         <v>293.12</v>
       </c>
       <c r="F90" t="n">
-        <v>291.15</v>
+        <v>294.61</v>
       </c>
       <c r="G90" t="n">
         <v>341.28</v>
@@ -3061,7 +3063,7 @@
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>270.48</v>
+        <v>268.91</v>
       </c>
       <c r="G91" t="n">
         <v>313.71</v>
@@ -3091,7 +3093,7 @@
         <v>268.73</v>
       </c>
       <c r="F92" t="n">
-        <v>265.05</v>
+        <v>263.76</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3119,7 +3121,7 @@
         <v>282.02</v>
       </c>
       <c r="F93" t="n">
-        <v>269.01</v>
+        <v>269.37</v>
       </c>
       <c r="G93" t="n">
         <v>330.72</v>
@@ -3149,7 +3151,7 @@
         <v>281.82</v>
       </c>
       <c r="F94" t="n">
-        <v>265.5</v>
+        <v>267.71</v>
       </c>
       <c r="G94" t="n">
         <v>330.55</v>
@@ -3177,7 +3179,7 @@
         <v>278.36</v>
       </c>
       <c r="F95" t="n">
-        <v>271.68</v>
+        <v>272.39</v>
       </c>
       <c r="G95" t="n">
         <v>341.83</v>
@@ -3207,7 +3209,7 @@
         <v>271.33</v>
       </c>
       <c r="F96" t="n">
-        <v>276.19</v>
+        <v>273.19</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3235,7 +3237,7 @@
         <v>271.12</v>
       </c>
       <c r="F97" t="n">
-        <v>285.83</v>
+        <v>283.29</v>
       </c>
       <c r="G97" t="n">
         <v>333.8</v>
@@ -3293,7 +3295,7 @@
         <v>291.01</v>
       </c>
       <c r="F99" t="n">
-        <v>284.32</v>
+        <v>282.21</v>
       </c>
       <c r="G99" t="n">
         <v>336.68</v>
@@ -3323,7 +3325,7 @@
         <v>283.75</v>
       </c>
       <c r="F100" t="n">
-        <v>278.67</v>
+        <v>278.92</v>
       </c>
       <c r="G100" t="n">
         <v>326.83</v>
@@ -3353,7 +3355,7 @@
         <v>271.56</v>
       </c>
       <c r="F101" t="n">
-        <v>256.73</v>
+        <v>257.37</v>
       </c>
       <c r="G101" t="n">
         <v>326.26</v>
@@ -3383,7 +3385,7 @@
         <v>277.13</v>
       </c>
       <c r="F102" t="n">
-        <v>266.38</v>
+        <v>269.27</v>
       </c>
       <c r="G102" t="n">
         <v>327.54</v>
@@ -3413,7 +3415,7 @@
         <v>272.81</v>
       </c>
       <c r="F103" t="n">
-        <v>281.28</v>
+        <v>279.24</v>
       </c>
       <c r="G103" t="n">
         <v>321.34</v>
@@ -3463,7 +3465,7 @@
         <v>276.2</v>
       </c>
       <c r="F105" t="n">
-        <v>268.85</v>
+        <v>269.35</v>
       </c>
       <c r="G105" t="n">
         <v>327.35</v>
@@ -3493,7 +3495,7 @@
         <v>272.41</v>
       </c>
       <c r="F106" t="n">
-        <v>288.58</v>
+        <v>286.79</v>
       </c>
       <c r="G106" t="n">
         <v>321.73</v>
@@ -3575,7 +3577,7 @@
         <v>285.35</v>
       </c>
       <c r="F109" t="n">
-        <v>275.17</v>
+        <v>276.35</v>
       </c>
       <c r="G109" t="n">
         <v>322.89</v>
@@ -3601,7 +3603,7 @@
         <v>287.54</v>
       </c>
       <c r="F110" t="n">
-        <v>275.57</v>
+        <v>277.07</v>
       </c>
       <c r="G110" t="n">
         <v>340.49</v>
@@ -3631,7 +3633,7 @@
         <v>284.48</v>
       </c>
       <c r="F111" t="n">
-        <v>267.66</v>
+        <v>269.95</v>
       </c>
       <c r="G111" t="n">
         <v>340.64</v>
@@ -3661,7 +3663,7 @@
         <v>298.7</v>
       </c>
       <c r="F112" t="n">
-        <v>284.01</v>
+        <v>281.47</v>
       </c>
       <c r="G112" t="n">
         <v>324.19</v>
@@ -3691,7 +3693,7 @@
         <v>290.3</v>
       </c>
       <c r="F113" t="n">
-        <v>280.66</v>
+        <v>284.09</v>
       </c>
       <c r="G113" t="n">
         <v>351.41</v>
@@ -3721,7 +3723,7 @@
         <v>274.13</v>
       </c>
       <c r="F114" t="n">
-        <v>256.48</v>
+        <v>254.05</v>
       </c>
       <c r="G114" t="n">
         <v>336.07</v>
@@ -3751,7 +3753,7 @@
         <v>295.1</v>
       </c>
       <c r="F115" t="n">
-        <v>289.21</v>
+        <v>286.25</v>
       </c>
       <c r="G115" t="n">
         <v>320.09</v>
@@ -3781,7 +3783,7 @@
         <v>284.45</v>
       </c>
       <c r="F116" t="n">
-        <v>275.51</v>
+        <v>275.08</v>
       </c>
       <c r="G116" t="n">
         <v>338.44</v>
@@ -3811,7 +3813,7 @@
         <v>281.96</v>
       </c>
       <c r="F117" t="n">
-        <v>275.23</v>
+        <v>275.69</v>
       </c>
       <c r="G117" t="n">
         <v>338.16</v>
@@ -3841,7 +3843,7 @@
         <v>283.47</v>
       </c>
       <c r="F118" t="n">
-        <v>275.08</v>
+        <v>272.33</v>
       </c>
       <c r="G118" t="n">
         <v>310.82</v>
@@ -3867,7 +3869,7 @@
         <v>251.07</v>
       </c>
       <c r="F119" t="n">
-        <v>245.86</v>
+        <v>243.4</v>
       </c>
       <c r="G119" t="n">
         <v>315.68</v>
@@ -3897,7 +3899,7 @@
         <v>276.41</v>
       </c>
       <c r="F120" t="n">
-        <v>266.77</v>
+        <v>268.41</v>
       </c>
       <c r="G120" t="n">
         <v>340.02</v>
@@ -3927,7 +3929,7 @@
         <v>281.36</v>
       </c>
       <c r="F121" t="n">
-        <v>269.75</v>
+        <v>271.07</v>
       </c>
       <c r="G121" t="n">
         <v>327.96</v>
@@ -3957,7 +3959,7 @@
         <v>288.96</v>
       </c>
       <c r="F122" t="n">
-        <v>289.78</v>
+        <v>287.82</v>
       </c>
       <c r="G122" t="n">
         <v>327.87</v>
@@ -3987,7 +3989,7 @@
         <v>290.96</v>
       </c>
       <c r="F123" t="n">
-        <v>286.1</v>
+        <v>284.56</v>
       </c>
       <c r="G123" t="n">
         <v>321.12</v>
@@ -4017,7 +4019,7 @@
         <v>304.28</v>
       </c>
       <c r="F124" t="n">
-        <v>296.35</v>
+        <v>294.56</v>
       </c>
       <c r="G124" t="n">
         <v>320.58</v>
@@ -4047,7 +4049,7 @@
         <v>284.05</v>
       </c>
       <c r="F125" t="n">
-        <v>282.21</v>
+        <v>283.03</v>
       </c>
       <c r="G125" t="n">
         <v>332.23</v>
@@ -4097,7 +4099,7 @@
         <v>285.88</v>
       </c>
       <c r="F127" t="n">
-        <v>281.05</v>
+        <v>279.66</v>
       </c>
       <c r="G127" t="n">
         <v>312.25</v>
@@ -4127,7 +4129,7 @@
         <v>284.64</v>
       </c>
       <c r="F128" t="n">
-        <v>275.86</v>
+        <v>279.79</v>
       </c>
       <c r="G128" t="n">
         <v>343.79</v>
@@ -4157,7 +4159,7 @@
         <v>273.17</v>
       </c>
       <c r="F129" t="n">
-        <v>261.93</v>
+        <v>260.18</v>
       </c>
       <c r="G129" t="n">
         <v>303.55</v>
@@ -4187,7 +4189,7 @@
         <v>273.07</v>
       </c>
       <c r="F130" t="n">
-        <v>262.06</v>
+        <v>259.88</v>
       </c>
       <c r="G130" t="n">
         <v>334.37</v>
@@ -4217,7 +4219,7 @@
         <v>276.11</v>
       </c>
       <c r="F131" t="n">
-        <v>251.98</v>
+        <v>253.48</v>
       </c>
       <c r="G131" t="n">
         <v>330.1</v>
@@ -4247,7 +4249,7 @@
         <v>279.34</v>
       </c>
       <c r="F132" t="n">
-        <v>270.45</v>
+        <v>271.31</v>
       </c>
       <c r="G132" t="n">
         <v>343.19</v>
@@ -4277,7 +4279,7 @@
         <v>279.6</v>
       </c>
       <c r="F133" t="n">
-        <v>266.8</v>
+        <v>267.73</v>
       </c>
       <c r="G133" t="n">
         <v>340.06</v>
@@ -4307,7 +4309,7 @@
         <v>289.44</v>
       </c>
       <c r="F134" t="n">
-        <v>275.55</v>
+        <v>276.87</v>
       </c>
       <c r="G134" t="n">
         <v>340.39</v>
@@ -4337,7 +4339,7 @@
         <v>289.52</v>
       </c>
       <c r="F135" t="n">
-        <v>291.2</v>
+        <v>288.38</v>
       </c>
       <c r="G135" t="n">
         <v>329.76</v>
@@ -4391,7 +4393,7 @@
         <v>284.25</v>
       </c>
       <c r="F137" t="n">
-        <v>270.35</v>
+        <v>273.78</v>
       </c>
       <c r="G137" t="n">
         <v>345.79</v>
@@ -4419,7 +4421,7 @@
         <v>284.17</v>
       </c>
       <c r="F138" t="n">
-        <v>276.09</v>
+        <v>277.91</v>
       </c>
       <c r="G138" t="n">
         <v>344.81</v>
@@ -4449,7 +4451,7 @@
         <v>278.91</v>
       </c>
       <c r="F139" t="n">
-        <v>266.35</v>
+        <v>267.81</v>
       </c>
       <c r="G139" t="n">
         <v>342.34</v>
@@ -4479,7 +4481,7 @@
         <v>282.34</v>
       </c>
       <c r="F140" t="n">
-        <v>268.4</v>
+        <v>266.15</v>
       </c>
       <c r="G140" t="n">
         <v>311.51</v>
@@ -4507,7 +4509,7 @@
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="n">
-        <v>247.51</v>
+        <v>244.94</v>
       </c>
       <c r="G141" t="n">
         <v>309.96</v>
@@ -4563,7 +4565,7 @@
         <v>278.57</v>
       </c>
       <c r="F143" t="n">
-        <v>267.62</v>
+        <v>271.08</v>
       </c>
       <c r="G143" t="n">
         <v>331.17</v>
@@ -4587,7 +4589,7 @@
         <v>271.19</v>
       </c>
       <c r="F144" t="n">
-        <v>273.38</v>
+        <v>271.81</v>
       </c>
       <c r="G144" t="n">
         <v>315.4</v>
@@ -4639,7 +4641,7 @@
         <v>278.33</v>
       </c>
       <c r="F146" t="n">
-        <v>274.65</v>
+        <v>272.97</v>
       </c>
       <c r="G146" t="n">
         <v>314.01</v>
@@ -4669,7 +4671,7 @@
         <v>284.05</v>
       </c>
       <c r="F147" t="n">
-        <v>276.61</v>
+        <v>279.25</v>
       </c>
       <c r="G147" t="n">
         <v>342.09</v>
@@ -4699,7 +4701,7 @@
         <v>283.14</v>
       </c>
       <c r="F148" t="n">
-        <v>275.73</v>
+        <v>273.87</v>
       </c>
       <c r="G148" t="n">
         <v>313.47</v>
@@ -4729,7 +4731,7 @@
         <v>274.67</v>
       </c>
       <c r="F149" t="n">
-        <v>263.7</v>
+        <v>264.88</v>
       </c>
       <c r="G149" t="n">
         <v>330.67</v>
@@ -4759,7 +4761,7 @@
         <v>274.06</v>
       </c>
       <c r="F150" t="n">
-        <v>263</v>
+        <v>262.21</v>
       </c>
       <c r="G150" t="n">
         <v>327.02</v>
@@ -4789,7 +4791,7 @@
         <v>280.91</v>
       </c>
       <c r="F151" t="n">
-        <v>267.64</v>
+        <v>268.46</v>
       </c>
       <c r="G151" t="n">
         <v>331.37</v>
@@ -4817,7 +4819,7 @@
         <v>279.25</v>
       </c>
       <c r="F152" t="n">
-        <v>261.39</v>
+        <v>262.35</v>
       </c>
       <c r="G152" t="n">
         <v>330.45</v>
@@ -4845,7 +4847,7 @@
         <v>285.82</v>
       </c>
       <c r="F153" t="n">
-        <v>268.25</v>
+        <v>269.54</v>
       </c>
       <c r="G153" t="n">
         <v>330.09</v>
@@ -4875,7 +4877,7 @@
         <v>301.63</v>
       </c>
       <c r="F154" t="n">
-        <v>307.77</v>
+        <v>304.91</v>
       </c>
       <c r="G154" t="n">
         <v>344.24</v>
@@ -4905,7 +4907,7 @@
         <v>299.09</v>
       </c>
       <c r="F155" t="n">
-        <v>298.23</v>
+        <v>295.66</v>
       </c>
       <c r="G155" t="n">
         <v>330.81</v>
@@ -4961,7 +4963,7 @@
         <v>294.49</v>
       </c>
       <c r="F157" t="n">
-        <v>281.16</v>
+        <v>278.77</v>
       </c>
       <c r="G157" t="n">
         <v>334.11</v>
@@ -4989,7 +4991,7 @@
         <v>278.46</v>
       </c>
       <c r="F158" t="n">
-        <v>264.76</v>
+        <v>265.51</v>
       </c>
       <c r="G158" t="n">
         <v>326.79</v>
@@ -5019,7 +5021,7 @@
         <v>281.44</v>
       </c>
       <c r="F159" t="n">
-        <v>271.84</v>
+        <v>272.09</v>
       </c>
       <c r="G159" t="n">
         <v>338.42</v>
@@ -5047,7 +5049,7 @@
         <v>284.6</v>
       </c>
       <c r="F160" t="n">
-        <v>266.62</v>
+        <v>266.66</v>
       </c>
       <c r="G160" t="n">
         <v>324.77</v>
@@ -5077,7 +5079,7 @@
         <v>300.76</v>
       </c>
       <c r="F161" t="n">
-        <v>256.75</v>
+        <v>254.14</v>
       </c>
       <c r="G161" t="n">
         <v>328.08</v>
@@ -5107,7 +5109,7 @@
         <v>292.31</v>
       </c>
       <c r="F162" t="n">
-        <v>277.88</v>
+        <v>277.7</v>
       </c>
       <c r="G162" t="n">
         <v>311.89</v>
@@ -5137,7 +5139,7 @@
         <v>299.16</v>
       </c>
       <c r="F163" t="n">
-        <v>293.46</v>
+        <v>291.25</v>
       </c>
       <c r="G163" t="n">
         <v>320.76</v>
@@ -5167,7 +5169,7 @@
         <v>281.21</v>
       </c>
       <c r="F164" t="n">
-        <v>264.48</v>
+        <v>265.66</v>
       </c>
       <c r="G164" t="n">
         <v>328.58</v>
@@ -5197,7 +5199,7 @@
         <v>284.03</v>
       </c>
       <c r="F165" t="n">
-        <v>272.44</v>
+        <v>274.44</v>
       </c>
       <c r="G165" t="n">
         <v>331.34</v>
@@ -5227,7 +5229,7 @@
         <v>280.44</v>
       </c>
       <c r="F166" t="n">
-        <v>258.49</v>
+        <v>256.53</v>
       </c>
       <c r="G166" t="n">
         <v>309.92</v>
@@ -5257,7 +5259,7 @@
         <v>284.64</v>
       </c>
       <c r="F167" t="n">
-        <v>273.34</v>
+        <v>275.66</v>
       </c>
       <c r="G167" t="n">
         <v>341.47</v>
@@ -5287,7 +5289,7 @@
         <v>282</v>
       </c>
       <c r="F168" t="n">
-        <v>273.52</v>
+        <v>274.41</v>
       </c>
       <c r="G168" t="n">
         <v>339.65</v>
@@ -5317,7 +5319,7 @@
         <v>267.77</v>
       </c>
       <c r="F169" t="n">
-        <v>251.3</v>
+        <v>250.69</v>
       </c>
       <c r="G169" t="n">
         <v>325.36</v>
@@ -5347,7 +5349,7 @@
         <v>285.21</v>
       </c>
       <c r="F170" t="n">
-        <v>272.14</v>
+        <v>272.85</v>
       </c>
       <c r="G170" t="n">
         <v>340.2</v>
@@ -5377,7 +5379,7 @@
         <v>295.57</v>
       </c>
       <c r="F171" t="n">
-        <v>293.77</v>
+        <v>291.98</v>
       </c>
       <c r="G171" t="n">
         <v>322.11</v>
@@ -5407,7 +5409,7 @@
         <v>268.56</v>
       </c>
       <c r="F172" t="n">
-        <v>242.73</v>
+        <v>240.16</v>
       </c>
       <c r="G172" t="n">
         <v>335.45</v>
@@ -5437,7 +5439,7 @@
         <v>271.34</v>
       </c>
       <c r="F173" t="n">
-        <v>246.1</v>
+        <v>244.21</v>
       </c>
       <c r="G173" t="n">
         <v>334.67</v>
@@ -5465,7 +5467,7 @@
         <v>267.88</v>
       </c>
       <c r="F174" t="n">
-        <v>254.02</v>
+        <v>253.73</v>
       </c>
       <c r="G174" t="n">
         <v>320.78</v>
@@ -5493,7 +5495,7 @@
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="n">
-        <v>259.67</v>
+        <v>257.21</v>
       </c>
       <c r="G175" t="n">
         <v>321.9</v>
@@ -5523,7 +5525,7 @@
         <v>298.11</v>
       </c>
       <c r="F176" t="n">
-        <v>274.88</v>
+        <v>277.52</v>
       </c>
       <c r="G176" t="n">
         <v>312.63</v>
@@ -5553,7 +5555,7 @@
         <v>286.46</v>
       </c>
       <c r="F177" t="n">
-        <v>276.68</v>
+        <v>277.97</v>
       </c>
       <c r="G177" t="n">
         <v>330</v>
@@ -5583,7 +5585,7 @@
         <v>275.13</v>
       </c>
       <c r="F178" t="n">
-        <v>260.67</v>
+        <v>259.35</v>
       </c>
       <c r="G178" t="n">
         <v>313.76</v>
@@ -5609,7 +5611,7 @@
         <v>287.77</v>
       </c>
       <c r="F179" t="n">
-        <v>280.49</v>
+        <v>282.63</v>
       </c>
       <c r="G179" t="n">
         <v>327.54</v>
@@ -5639,7 +5641,7 @@
         <v>270.31</v>
       </c>
       <c r="F180" t="n">
-        <v>261.96</v>
+        <v>259.78</v>
       </c>
       <c r="G180" t="n">
         <v>316.48</v>
@@ -5715,7 +5717,7 @@
         <v>284.24</v>
       </c>
       <c r="F183" t="n">
-        <v>268.52</v>
+        <v>270.06</v>
       </c>
       <c r="G183" t="n">
         <v>340.82</v>
@@ -5745,7 +5747,7 @@
         <v>283.87</v>
       </c>
       <c r="F184" t="n">
-        <v>271.32</v>
+        <v>274.64</v>
       </c>
       <c r="G184" t="n">
         <v>342.98</v>
@@ -5775,7 +5777,7 @@
         <v>288.18</v>
       </c>
       <c r="F185" t="n">
-        <v>271.15</v>
+        <v>268.22</v>
       </c>
       <c r="G185" t="n">
         <v>319.25</v>
@@ -5805,7 +5807,7 @@
         <v>283.79</v>
       </c>
       <c r="F186" t="n">
-        <v>272.62</v>
+        <v>273.51</v>
       </c>
       <c r="G186" t="n">
         <v>329.76</v>
@@ -5835,7 +5837,7 @@
         <v>273.71</v>
       </c>
       <c r="F187" t="n">
-        <v>264.08</v>
+        <v>262.08</v>
       </c>
       <c r="G187" t="n">
         <v>320.44</v>
@@ -5865,7 +5867,7 @@
         <v>299.25</v>
       </c>
       <c r="F188" t="n">
-        <v>298.62</v>
+        <v>297.12</v>
       </c>
       <c r="G188" t="n">
         <v>318.14</v>
@@ -5895,7 +5897,7 @@
         <v>281.26</v>
       </c>
       <c r="F189" t="n">
-        <v>278.19</v>
+        <v>282.44</v>
       </c>
       <c r="G189" t="n">
         <v>332.07</v>
@@ -5925,7 +5927,7 @@
         <v>279.89</v>
       </c>
       <c r="F190" t="n">
-        <v>270.95</v>
+        <v>270.34</v>
       </c>
       <c r="G190" t="n">
         <v>324.32</v>
@@ -5955,7 +5957,7 @@
         <v>301.28</v>
       </c>
       <c r="F191" t="n">
-        <v>315.08</v>
+        <v>312.76</v>
       </c>
       <c r="G191" t="n">
         <v>338.62</v>
@@ -5985,7 +5987,7 @@
         <v>295.62</v>
       </c>
       <c r="F192" t="n">
-        <v>289.65</v>
+        <v>293.04</v>
       </c>
       <c r="G192" t="n">
         <v>348.75</v>
@@ -6015,7 +6017,7 @@
         <v>284.56</v>
       </c>
       <c r="F193" t="n">
-        <v>270.95</v>
+        <v>268.49</v>
       </c>
       <c r="G193" t="n">
         <v>339.36</v>
@@ -6045,7 +6047,7 @@
         <v>285.36</v>
       </c>
       <c r="F194" t="n">
-        <v>267.91</v>
+        <v>267.59</v>
       </c>
       <c r="G194" t="n">
         <v>341.95</v>
@@ -6075,7 +6077,7 @@
         <v>286.41</v>
       </c>
       <c r="F195" t="n">
-        <v>269.87</v>
+        <v>271.66</v>
       </c>
       <c r="G195" t="n">
         <v>340.26</v>
@@ -6105,7 +6107,7 @@
         <v>281.37</v>
       </c>
       <c r="F196" t="n">
-        <v>260.89</v>
+        <v>258.5</v>
       </c>
       <c r="G196" t="n">
         <v>333.98</v>
@@ -6131,7 +6133,7 @@
         <v>286.9</v>
       </c>
       <c r="F197" t="n">
-        <v>274.75</v>
+        <v>278.39</v>
       </c>
       <c r="G197" t="n">
         <v>347.21</v>
@@ -6161,7 +6163,7 @@
         <v>285.76</v>
       </c>
       <c r="F198" t="n">
-        <v>270.23</v>
+        <v>272.91</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
@@ -6189,7 +6191,7 @@
         <v>276.88</v>
       </c>
       <c r="F199" t="n">
-        <v>273.24</v>
+        <v>270.28</v>
       </c>
       <c r="G199" t="n">
         <v>326.27</v>
@@ -6219,7 +6221,7 @@
         <v>281.02</v>
       </c>
       <c r="F200" t="n">
-        <v>274.62</v>
+        <v>276.16</v>
       </c>
       <c r="G200" t="n">
         <v>328.38</v>
@@ -6249,7 +6251,7 @@
         <v>278.7</v>
       </c>
       <c r="F201" t="n">
-        <v>272.43</v>
+        <v>271.5</v>
       </c>
       <c r="G201" t="n">
         <v>313.98</v>
@@ -6279,7 +6281,7 @@
         <v>284.76</v>
       </c>
       <c r="F202" t="n">
-        <v>279.58</v>
+        <v>280.47</v>
       </c>
       <c r="G202" t="n">
         <v>325.66</v>
@@ -6335,7 +6337,7 @@
         <v>286.53</v>
       </c>
       <c r="F204" t="n">
-        <v>279.46</v>
+        <v>277.92</v>
       </c>
       <c r="G204" t="n">
         <v>315.06</v>
@@ -6365,7 +6367,7 @@
         <v>292.99</v>
       </c>
       <c r="F205" t="n">
-        <v>282.92</v>
+        <v>284.03</v>
       </c>
       <c r="G205" t="n">
         <v>328.33</v>
@@ -6395,7 +6397,7 @@
         <v>285.34</v>
       </c>
       <c r="F206" t="n">
-        <v>300.66</v>
+        <v>298.16</v>
       </c>
       <c r="G206" t="n">
         <v>336.42</v>
@@ -6425,7 +6427,7 @@
         <v>302.05</v>
       </c>
       <c r="F207" t="n">
-        <v>297.95</v>
+        <v>300.7</v>
       </c>
       <c r="G207" t="n">
         <v>346.57</v>
@@ -6455,7 +6457,7 @@
         <v>299.51</v>
       </c>
       <c r="F208" t="n">
-        <v>290.87</v>
+        <v>293.87</v>
       </c>
       <c r="G208" t="n">
         <v>346.52</v>
@@ -6485,7 +6487,7 @@
         <v>299.62</v>
       </c>
       <c r="F209" t="n">
-        <v>287.73</v>
+        <v>289.37</v>
       </c>
       <c r="G209" t="n">
         <v>343.31</v>
@@ -6511,7 +6513,7 @@
         <v>296</v>
       </c>
       <c r="F210" t="n">
-        <v>285.88</v>
+        <v>285.99</v>
       </c>
       <c r="G210" t="n">
         <v>348.72</v>
@@ -6541,7 +6543,7 @@
         <v>277.36</v>
       </c>
       <c r="F211" t="n">
-        <v>263.67</v>
+        <v>263.56</v>
       </c>
       <c r="G211" t="n">
         <v>330.29</v>
@@ -6571,7 +6573,7 @@
         <v>293.9</v>
       </c>
       <c r="F212" t="n">
-        <v>275.13</v>
+        <v>272.77</v>
       </c>
       <c r="G212" t="n">
         <v>312.2</v>
@@ -6601,7 +6603,7 @@
         <v>278.25</v>
       </c>
       <c r="F213" t="n">
-        <v>267.79</v>
+        <v>265.43</v>
       </c>
       <c r="G213" t="n">
         <v>312.11</v>
@@ -6659,7 +6661,7 @@
         <v>294.15</v>
       </c>
       <c r="F215" t="n">
-        <v>301.88</v>
+        <v>299.45</v>
       </c>
       <c r="G215" t="n">
         <v>316</v>
@@ -6717,7 +6719,7 @@
         <v>277.62</v>
       </c>
       <c r="F217" t="n">
-        <v>260.07</v>
+        <v>258.36</v>
       </c>
       <c r="G217" t="n">
         <v>312.83</v>
@@ -6747,7 +6749,7 @@
         <v>292.54</v>
       </c>
       <c r="F218" t="n">
-        <v>291.11</v>
+        <v>293.5</v>
       </c>
       <c r="G218" t="n">
         <v>340.74</v>
@@ -6777,7 +6779,7 @@
         <v>297</v>
       </c>
       <c r="F219" t="n">
-        <v>286.61</v>
+        <v>287.07</v>
       </c>
       <c r="G219" t="n">
         <v>328.25</v>
@@ -6807,7 +6809,7 @@
         <v>294.46</v>
       </c>
       <c r="F220" t="n">
-        <v>287.19</v>
+        <v>290.33</v>
       </c>
       <c r="G220" t="n">
         <v>332.36</v>
@@ -6835,7 +6837,7 @@
         <v>308.98</v>
       </c>
       <c r="F221" t="n">
-        <v>292.46</v>
+        <v>292.14</v>
       </c>
       <c r="G221" t="n">
         <v>314.61</v>
@@ -6865,7 +6867,7 @@
         <v>299.88</v>
       </c>
       <c r="F222" t="n">
-        <v>288.59</v>
+        <v>289.41</v>
       </c>
       <c r="G222" t="n">
         <v>340.53</v>
@@ -6947,7 +6949,7 @@
         <v>277.71</v>
       </c>
       <c r="F225" t="n">
-        <v>264.37</v>
+        <v>267.01</v>
       </c>
       <c r="G225" t="n">
         <v>332.22</v>
@@ -6975,7 +6977,7 @@
         <v>268.1</v>
       </c>
       <c r="F226" t="n">
-        <v>271.8</v>
+        <v>269.3</v>
       </c>
       <c r="G226" t="n">
         <v>338.24</v>
@@ -7005,7 +7007,7 @@
         <v>286.34</v>
       </c>
       <c r="F227" t="n">
-        <v>282.55</v>
+        <v>284.12</v>
       </c>
       <c r="G227" t="n">
         <v>341.51</v>
@@ -7035,7 +7037,7 @@
         <v>282.6</v>
       </c>
       <c r="F228" t="n">
-        <v>276.61</v>
+        <v>277.75</v>
       </c>
       <c r="G228" t="n">
         <v>341.79</v>
@@ -7091,7 +7093,7 @@
         <v>293.05</v>
       </c>
       <c r="F230" t="n">
-        <v>308.32</v>
+        <v>305.96</v>
       </c>
       <c r="G230" t="n">
         <v>338.02</v>
@@ -7121,7 +7123,7 @@
         <v>285.11</v>
       </c>
       <c r="F231" t="n">
-        <v>292.76</v>
+        <v>290.69</v>
       </c>
       <c r="G231" t="n">
         <v>332.11</v>
@@ -7147,7 +7149,7 @@
         <v>283.25</v>
       </c>
       <c r="F232" t="n">
-        <v>274.72</v>
+        <v>276.97</v>
       </c>
       <c r="G232" t="n">
         <v>327.77</v>
@@ -7177,7 +7179,7 @@
         <v>296.64</v>
       </c>
       <c r="F233" t="n">
-        <v>289.73</v>
+        <v>293.69</v>
       </c>
       <c r="G233" t="n">
         <v>343.42</v>
@@ -7207,7 +7209,7 @@
         <v>295.44</v>
       </c>
       <c r="F234" t="n">
-        <v>284.65</v>
+        <v>286.51</v>
       </c>
       <c r="G234" t="n">
         <v>329.67</v>
@@ -7237,7 +7239,7 @@
         <v>294.99</v>
       </c>
       <c r="F235" t="n">
-        <v>293.37</v>
+        <v>295.66</v>
       </c>
       <c r="G235" t="n">
         <v>342.96</v>
@@ -7267,7 +7269,7 @@
         <v>306.22</v>
       </c>
       <c r="F236" t="n">
-        <v>288.37</v>
+        <v>288.51</v>
       </c>
       <c r="G236" t="n">
         <v>340.87</v>
@@ -7297,7 +7299,7 @@
         <v>284.67</v>
       </c>
       <c r="F237" t="n">
-        <v>279.14</v>
+        <v>283</v>
       </c>
       <c r="G237" t="n">
         <v>342.71</v>
@@ -7327,7 +7329,7 @@
         <v>293.21</v>
       </c>
       <c r="F238" t="n">
-        <v>282.56</v>
+        <v>284.42</v>
       </c>
       <c r="G238" t="n">
         <v>329.36</v>
@@ -7357,7 +7359,7 @@
         <v>306.28</v>
       </c>
       <c r="F239" t="n">
-        <v>292.99</v>
+        <v>293.1</v>
       </c>
       <c r="G239" t="n">
         <v>338.08</v>
@@ -7387,7 +7389,7 @@
         <v>304.58</v>
       </c>
       <c r="F240" t="n">
-        <v>296.34</v>
+        <v>296.2</v>
       </c>
       <c r="G240" t="n">
         <v>338.23</v>
@@ -7441,7 +7443,7 @@
         <v>282.96</v>
       </c>
       <c r="F242" t="n">
-        <v>268.69</v>
+        <v>266.33</v>
       </c>
       <c r="G242" t="n">
         <v>323.41</v>
@@ -7471,7 +7473,7 @@
         <v>276.29</v>
       </c>
       <c r="F243" t="n">
-        <v>260.59</v>
+        <v>261.84</v>
       </c>
       <c r="G243" t="n">
         <v>342.11</v>
@@ -7501,7 +7503,7 @@
         <v>268.51</v>
       </c>
       <c r="F244" t="n">
-        <v>256.33</v>
+        <v>253.51</v>
       </c>
       <c r="G244" t="n">
         <v>336.79</v>
@@ -7531,7 +7533,7 @@
         <v>276.69</v>
       </c>
       <c r="F245" t="n">
-        <v>263.75</v>
+        <v>266.14</v>
       </c>
       <c r="G245" t="n">
         <v>344.52</v>
@@ -7559,7 +7561,7 @@
         <v>268.49</v>
       </c>
       <c r="F246" t="n">
-        <v>252.25</v>
+        <v>250.14</v>
       </c>
       <c r="G246" t="n">
         <v>324.24</v>
@@ -7589,7 +7591,7 @@
         <v>286.33</v>
       </c>
       <c r="F247" t="n">
-        <v>273.09</v>
+        <v>274.48</v>
       </c>
       <c r="G247" t="n">
         <v>341.28</v>
@@ -7645,7 +7647,7 @@
         <v>286.62</v>
       </c>
       <c r="F249" t="n">
-        <v>298.26</v>
+        <v>296.26</v>
       </c>
       <c r="G249" t="n">
         <v>335.88</v>
@@ -7675,7 +7677,7 @@
         <v>275.55</v>
       </c>
       <c r="F250" t="n">
-        <v>272.44</v>
+        <v>275.65</v>
       </c>
       <c r="G250" t="n">
         <v>343.64</v>
@@ -7705,7 +7707,7 @@
         <v>269.06</v>
       </c>
       <c r="F251" t="n">
-        <v>267.6</v>
+        <v>267.31</v>
       </c>
       <c r="G251" t="n">
         <v>325.26</v>
@@ -7735,7 +7737,7 @@
         <v>280.56</v>
       </c>
       <c r="F252" t="n">
-        <v>266.5</v>
+        <v>266.07</v>
       </c>
       <c r="G252" t="n">
         <v>326.64</v>
@@ -7785,7 +7787,7 @@
         <v>270.71</v>
       </c>
       <c r="F254" t="n">
-        <v>261.72</v>
+        <v>260.15</v>
       </c>
       <c r="G254" t="n">
         <v>310.47</v>
@@ -7815,7 +7817,7 @@
         <v>280.68</v>
       </c>
       <c r="F255" t="n">
-        <v>265.47</v>
+        <v>268.76</v>
       </c>
       <c r="G255" t="n">
         <v>342.65</v>
@@ -7871,7 +7873,7 @@
         <v>278.85</v>
       </c>
       <c r="F257" t="n">
-        <v>260.64</v>
+        <v>260.68</v>
       </c>
       <c r="G257" t="n">
         <v>343.37</v>
@@ -7901,7 +7903,7 @@
         <v>291.13</v>
       </c>
       <c r="F258" t="n">
-        <v>275.28</v>
+        <v>276.42</v>
       </c>
       <c r="G258" t="n">
         <v>342.52</v>
@@ -7929,7 +7931,7 @@
         <v>282.86</v>
       </c>
       <c r="F259" t="n">
-        <v>258.75</v>
+        <v>256.21</v>
       </c>
       <c r="G259" t="n">
         <v>320.96</v>
@@ -7959,7 +7961,7 @@
         <v>287.87</v>
       </c>
       <c r="F260" t="n">
-        <v>276.21</v>
+        <v>276.35</v>
       </c>
       <c r="G260" t="n">
         <v>339.14</v>
@@ -7989,7 +7991,7 @@
         <v>276.15</v>
       </c>
       <c r="F261" t="n">
-        <v>263.11</v>
+        <v>261</v>
       </c>
       <c r="G261" t="n">
         <v>335.25</v>
@@ -8017,7 +8019,7 @@
         <v>295.81</v>
       </c>
       <c r="F262" t="n">
-        <v>278.33</v>
+        <v>278.19</v>
       </c>
       <c r="G262" t="n">
         <v>361.24</v>
@@ -8047,7 +8049,7 @@
         <v>283.59</v>
       </c>
       <c r="F263" t="n">
-        <v>261.44</v>
+        <v>259.37</v>
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
@@ -8075,7 +8077,7 @@
         <v>287.09</v>
       </c>
       <c r="F264" t="n">
-        <v>277.11</v>
+        <v>280.32</v>
       </c>
       <c r="G264" t="n">
         <v>348.51</v>
@@ -8105,7 +8107,7 @@
         <v>292.58</v>
       </c>
       <c r="F265" t="n">
-        <v>285.31</v>
+        <v>287.56</v>
       </c>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr">
@@ -8133,7 +8135,7 @@
         <v>286.47</v>
       </c>
       <c r="F266" t="n">
-        <v>280.97</v>
+        <v>277.72</v>
       </c>
       <c r="G266" t="n">
         <v>317.9</v>
@@ -8163,7 +8165,7 @@
         <v>278.54</v>
       </c>
       <c r="F267" t="n">
-        <v>261.37</v>
+        <v>262.05</v>
       </c>
       <c r="G267" t="n">
         <v>305.81</v>
@@ -8193,7 +8195,7 @@
         <v>267.54</v>
       </c>
       <c r="F268" t="n">
-        <v>260.03</v>
+        <v>262.96</v>
       </c>
       <c r="G268" t="n">
         <v>341.91</v>
@@ -8243,7 +8245,7 @@
         <v>270.26</v>
       </c>
       <c r="F270" t="n">
-        <v>262.14</v>
+        <v>262.03</v>
       </c>
       <c r="G270" t="n">
         <v>328.72</v>
@@ -8273,7 +8275,7 @@
         <v>279.39</v>
       </c>
       <c r="F271" t="n">
-        <v>270.69</v>
+        <v>272.51</v>
       </c>
       <c r="G271" t="n">
         <v>331.61</v>
@@ -8303,7 +8305,7 @@
         <v>274.57</v>
       </c>
       <c r="F272" t="n">
-        <v>269.38</v>
+        <v>269.34</v>
       </c>
       <c r="G272" t="n">
         <v>324.96</v>
@@ -8333,7 +8335,7 @@
         <v>279.86</v>
       </c>
       <c r="F273" t="n">
-        <v>271.12</v>
+        <v>272.19</v>
       </c>
       <c r="G273" t="n">
         <v>339.55</v>
@@ -8387,7 +8389,7 @@
         <v>273.59</v>
       </c>
       <c r="F275" t="n">
-        <v>271.92</v>
+        <v>270.71</v>
       </c>
       <c r="G275" t="n">
         <v>340.69</v>
@@ -8417,7 +8419,7 @@
         <v>271.2</v>
       </c>
       <c r="F276" t="n">
-        <v>289.07</v>
+        <v>286.36</v>
       </c>
       <c r="G276" t="n">
         <v>319.3</v>
@@ -8471,7 +8473,7 @@
         <v>279.03</v>
       </c>
       <c r="F278" t="n">
-        <v>274.34</v>
+        <v>276.09</v>
       </c>
       <c r="G278" t="n">
         <v>342.4</v>
@@ -8501,7 +8503,7 @@
         <v>270.84</v>
       </c>
       <c r="F279" t="n">
-        <v>247.93</v>
+        <v>249.14</v>
       </c>
       <c r="G279" t="n">
         <v>339.58</v>
@@ -8531,7 +8533,7 @@
         <v>271.96</v>
       </c>
       <c r="F280" t="n">
-        <v>258.49</v>
+        <v>257.92</v>
       </c>
       <c r="G280" t="n">
         <v>340.34</v>
@@ -8561,7 +8563,7 @@
         <v>302.25</v>
       </c>
       <c r="F281" t="n">
-        <v>285.79</v>
+        <v>283.61</v>
       </c>
       <c r="G281" t="n">
         <v>329.49</v>
@@ -8591,7 +8593,7 @@
         <v>278.45</v>
       </c>
       <c r="F282" t="n">
-        <v>278.48</v>
+        <v>276.55</v>
       </c>
       <c r="G282" t="n">
         <v>322.93</v>
@@ -8621,7 +8623,7 @@
         <v>285.57</v>
       </c>
       <c r="F283" t="n">
-        <v>278.45</v>
+        <v>280.81</v>
       </c>
       <c r="G283" t="n">
         <v>344.05</v>
@@ -8671,7 +8673,7 @@
         <v>274.1</v>
       </c>
       <c r="F285" t="n">
-        <v>304.85</v>
+        <v>301.74</v>
       </c>
       <c r="G285" t="n">
         <v>330.83</v>
@@ -8723,7 +8725,7 @@
         <v>296.06</v>
       </c>
       <c r="F287" t="n">
-        <v>290.17</v>
+        <v>289.13</v>
       </c>
       <c r="G287" t="n">
         <v>318.22</v>
@@ -8805,7 +8807,7 @@
         <v>284.1</v>
       </c>
       <c r="F290" t="n">
-        <v>281.43</v>
+        <v>282.86</v>
       </c>
       <c r="G290" t="n">
         <v>329.31</v>
@@ -8835,7 +8837,7 @@
         <v>305.21</v>
       </c>
       <c r="F291" t="n">
-        <v>294.81</v>
+        <v>293.85</v>
       </c>
       <c r="G291" t="n">
         <v>315.87</v>
@@ -8865,7 +8867,7 @@
         <v>291.73</v>
       </c>
       <c r="F292" t="n">
-        <v>278.8</v>
+        <v>283.12</v>
       </c>
       <c r="G292" t="n">
         <v>332.91</v>
@@ -8895,7 +8897,7 @@
         <v>300.18</v>
       </c>
       <c r="F293" t="n">
-        <v>286.64</v>
+        <v>288.1</v>
       </c>
       <c r="G293" t="n">
         <v>343.34</v>
@@ -8925,7 +8927,7 @@
         <v>297.97</v>
       </c>
       <c r="F294" t="n">
-        <v>282.12</v>
+        <v>280.44</v>
       </c>
       <c r="G294" t="n">
         <v>336.86</v>
@@ -8955,7 +8957,7 @@
         <v>289.06</v>
       </c>
       <c r="F295" t="n">
-        <v>274.4</v>
+        <v>277.22</v>
       </c>
       <c r="G295" t="n">
         <v>332.39</v>
@@ -8985,7 +8987,7 @@
         <v>291.19</v>
       </c>
       <c r="F296" t="n">
-        <v>281.82</v>
+        <v>279.53</v>
       </c>
       <c r="G296" t="n">
         <v>319.45</v>
@@ -9015,7 +9017,7 @@
         <v>291.49</v>
       </c>
       <c r="F297" t="n">
-        <v>283.97</v>
+        <v>286.33</v>
       </c>
       <c r="G297" t="n">
         <v>345.73</v>
@@ -9045,7 +9047,7 @@
         <v>291.73</v>
       </c>
       <c r="F298" t="n">
-        <v>278.37</v>
+        <v>280.01</v>
       </c>
       <c r="G298" t="n">
         <v>342.78</v>
@@ -9075,7 +9077,7 @@
         <v>289.13</v>
       </c>
       <c r="F299" t="n">
-        <v>274.3</v>
+        <v>276.34</v>
       </c>
       <c r="G299" t="n">
         <v>340.91</v>
@@ -9105,7 +9107,7 @@
         <v>294.62</v>
       </c>
       <c r="F300" t="n">
-        <v>283.92</v>
+        <v>287.17</v>
       </c>
       <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr">
@@ -9133,7 +9135,7 @@
         <v>298.63</v>
       </c>
       <c r="F301" t="n">
-        <v>280.78</v>
+        <v>279.96</v>
       </c>
       <c r="G301" t="n">
         <v>315.06</v>
@@ -9163,7 +9165,7 @@
         <v>292.8</v>
       </c>
       <c r="F302" t="n">
-        <v>278.28</v>
+        <v>279.21</v>
       </c>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
@@ -9191,7 +9193,7 @@
         <v>306.8</v>
       </c>
       <c r="F303" t="n">
-        <v>293.58</v>
+        <v>292.44</v>
       </c>
       <c r="G303" t="n">
         <v>319.36</v>
@@ -9221,7 +9223,7 @@
         <v>291.86</v>
       </c>
       <c r="F304" t="n">
-        <v>288.16</v>
+        <v>286.48</v>
       </c>
       <c r="G304" t="n">
         <v>319.43</v>
@@ -9251,7 +9253,7 @@
         <v>320.02</v>
       </c>
       <c r="F305" t="n">
-        <v>301.13</v>
+        <v>299.02</v>
       </c>
       <c r="G305" t="n">
         <v>325.05</v>
@@ -9281,7 +9283,7 @@
         <v>277.61</v>
       </c>
       <c r="F306" t="n">
-        <v>286.38</v>
+        <v>284.92</v>
       </c>
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr">
@@ -9309,7 +9311,7 @@
         <v>279.15</v>
       </c>
       <c r="F307" t="n">
-        <v>267.84</v>
+        <v>268.95</v>
       </c>
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr">
@@ -9337,7 +9339,7 @@
         <v>294.39</v>
       </c>
       <c r="F308" t="n">
-        <v>290.52</v>
+        <v>288.84</v>
       </c>
       <c r="G308" t="n">
         <v>334.04</v>
@@ -9367,7 +9369,7 @@
         <v>283.78</v>
       </c>
       <c r="F309" t="n">
-        <v>270.64</v>
+        <v>273.46</v>
       </c>
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr">
@@ -9395,7 +9397,7 @@
         <v>286.66</v>
       </c>
       <c r="F310" t="n">
-        <v>280.91</v>
+        <v>278.37</v>
       </c>
       <c r="G310" t="n">
         <v>321.73</v>
@@ -9425,7 +9427,7 @@
         <v>281.77</v>
       </c>
       <c r="F311" t="n">
-        <v>272.74</v>
+        <v>274.45</v>
       </c>
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr">
@@ -9453,7 +9455,7 @@
         <v>286.69</v>
       </c>
       <c r="F312" t="n">
-        <v>271.65</v>
+        <v>273.26</v>
       </c>
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr">
@@ -9481,7 +9483,7 @@
         <v>278.4</v>
       </c>
       <c r="F313" t="n">
-        <v>272.13</v>
+        <v>271.67</v>
       </c>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
@@ -9509,7 +9511,7 @@
         <v>276.72</v>
       </c>
       <c r="F314" t="n">
-        <v>256.91</v>
+        <v>257.27</v>
       </c>
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
@@ -9537,7 +9539,7 @@
         <v>284.69</v>
       </c>
       <c r="F315" t="n">
-        <v>271.58</v>
+        <v>269.04</v>
       </c>
       <c r="G315" t="n">
         <v>310.11</v>
@@ -9567,7 +9569,7 @@
         <v>281.66</v>
       </c>
       <c r="F316" t="n">
-        <v>269.61</v>
+        <v>270.11</v>
       </c>
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr">
@@ -13290,28 +13292,28 @@
         <v>0.041</v>
       </c>
       <c r="I6" t="n">
-        <v>0.466856005951051</v>
+        <v>0.4300376754660816</v>
       </c>
       <c r="J6" t="n">
         <v>315</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0647201340915512</v>
+        <v>0.05173527129444844</v>
       </c>
       <c r="M6" t="n">
-        <v>10.00570112947682</v>
+        <v>10.28606092331568</v>
       </c>
       <c r="N6" t="n">
-        <v>157.9617593053594</v>
+        <v>169.9264295298545</v>
       </c>
       <c r="O6" t="n">
-        <v>12.56828386476688</v>
+        <v>13.03558320635692</v>
       </c>
       <c r="P6" t="n">
-        <v>266.5077426916905</v>
+        <v>267.4080138328944</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13505,7 +13507,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-35.532821240928605,174.46152280975596</t>
+          <t>-35.532800293967924,174.46154957529762</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -13547,7 +13549,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-35.53285153920099,174.46148409528715</t>
+          <t>-35.53284262427846,174.4614954865845</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -13589,7 +13591,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-35.532865940227516,174.46146569395532</t>
+          <t>-35.532865503832824,174.46146625157152</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -13631,7 +13633,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-35.533009950345146,174.46128168027474</t>
+          <t>-35.53302734375677,174.4612594552012</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -13673,7 +13675,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-35.533054462509,174.46122480318564</t>
+          <t>-35.53303488713478,174.46124981636703</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -13715,7 +13717,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-35.532904529978026,174.46141638472633</t>
+          <t>-35.532908519870354,174.46141128651576</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -13757,7 +13759,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-35.53302054848172,174.4612681381164</t>
+          <t>-35.53301319212825,174.46127753796785</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -13795,7 +13797,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-35.53306362677484,174.46121309318892</t>
+          <t>-35.53306094607135,174.46121651856237</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -13871,7 +13873,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-35.53303625865798,174.46124806385154</t>
+          <t>-35.533055834031856,174.4612230506693</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -13901,7 +13903,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-35.53291662433851,174.46140093077403</t>
+          <t>-35.53289817108671,174.46142450999832</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -13943,7 +13945,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-35.53282616595724,174.46151651666528</t>
+          <t>-35.53283059224853,174.46151086084896</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -13985,7 +13987,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-35.53280222657465,174.46154710585836</t>
+          <t>-35.532814695004014,174.46153117398921</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -14027,7 +14029,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-35.53294704725753,174.46136205689416</t>
+          <t>-35.532949727965004,174.46135863153043</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -14069,7 +14071,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-35.532984577153435,174.46131410178057</t>
+          <t>-35.53298370436537,174.46131521701628</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -14111,7 +14113,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-35.53287036651652,174.46146003813342</t>
+          <t>-35.53287772288359,174.46145063831528</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -14153,7 +14155,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-35.53299218287762,174.46130438329695</t>
+          <t>-35.53301044908102,174.4612810429968</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -14195,7 +14197,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-35.53297859232077,174.46132174911065</t>
+          <t>-35.53297036317507,174.46133226418766</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -14263,7 +14265,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-35.53303987449173,174.46124344358313</t>
+          <t>-35.533040747279195,174.46124232834586</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -14305,7 +14307,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-35.53305489890264,174.4612242455668</t>
+          <t>-35.53306001094219,174.46121771346003</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -14347,7 +14349,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-35.53297030083307,174.46133234384735</t>
+          <t>-35.53295315677671,174.46135425025082</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -14381,7 +14383,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-35.53295228398829,174.46135536548564</t>
+          <t>-35.53294205989457,174.46136842966337</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -14423,7 +14425,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-35.53294773301991,174.46136118063836</t>
+          <t>-35.532963754921084,174.46134070811158</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -14461,7 +14463,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-35.5329310253529,174.46138252941245</t>
+          <t>-35.53294193521051,174.4613685889826</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -14499,7 +14501,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-35.532995299977486,174.46130040031133</t>
+          <t>-35.53300153417683,174.46129243433916</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -14537,7 +14539,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-35.53297092425322,174.46133154725064</t>
+          <t>-35.53295870521719,174.46134716054308</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -14579,7 +14581,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-35.532896176140284,174.46142705910302</t>
+          <t>-35.532880154225104,174.46144753159538</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -14621,7 +14623,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-35.532943431419426,174.46136667715194</t>
+          <t>-35.53293183579952,174.4613814938378</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -14663,7 +14665,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-35.53300134715086,174.46129267331833</t>
+          <t>-35.533010262055065,174.461281281976</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -14705,7 +14707,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-35.53277460899646,174.46158239493084</t>
+          <t>-35.532758337687305,174.4616031859983</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -14747,7 +14749,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-35.532787887878406,174.4615654275017</t>
+          <t>-35.5327680630679,174.4615907591544</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -14789,7 +14791,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-35.532918494600274,174.4613985409872</t>
+          <t>-35.53291095121088,174.4614081797935</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -14823,7 +14825,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-35.532959640347556,174.46134596564843</t>
+          <t>-35.532963193842896,174.46134142504846</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -14865,7 +14867,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-35.53283395872341,174.46150655924174</t>
+          <t>-35.532837512224525,174.46150201865595</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -14907,7 +14909,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-35.532859581333014,174.46147381921955</t>
+          <t>-35.53283776159301,174.46150170001835</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -14949,7 +14951,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-35.53291575154967,174.4614020460079</t>
+          <t>-35.532907958791746,174.46141200345167</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -15021,7 +15023,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-35.532855965490825,174.46147843946724</t>
+          <t>-35.53283657709267,174.461503213547</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -15063,7 +15065,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-35.53293002788013,174.46138380396584</t>
+          <t>-35.53291219805215,174.46140658660246</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -15105,7 +15107,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-35.532917372443215,174.46139997485932</t>
+          <t>-35.53292871869709,174.46138547681713</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -15147,7 +15149,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-35.53282460740391,174.46151850814977</t>
+          <t>-35.53282996882723,174.46151165744286</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -15185,7 +15187,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-35.53288782230166,174.46143773347748</t>
+          <t>-35.53288158809313,174.46144569942712</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -15227,7 +15229,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-35.53295664793031,174.46134978931124</t>
+          <t>-35.532943493761465,174.46136659749234</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -15269,7 +15271,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-35.5329753505362,174.46132589141396</t>
+          <t>-35.53299405313755,174.4613019935056</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -15311,7 +15313,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-35.53288059061972,174.46144697397895</t>
+          <t>-35.53286276078034,174.4614697565876</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -15353,7 +15355,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-35.53294548870665,174.46136404838464</t>
+          <t>-35.53293432948137,174.46137830745408</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -15395,7 +15397,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-35.5328491702007,174.46148712234543</t>
+          <t>-35.532842686620576,174.4614954069251</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -15471,7 +15473,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-35.53277074378156,174.46158733380588</t>
+          <t>-35.53275073194009,174.46161290442546</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -15513,7 +15515,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-35.53292871869709,174.46138547681713</t>
+          <t>-35.53291469173464,174.46140340022032</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -15555,7 +15557,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-35.53287217443731,174.46145772800875</t>
+          <t>-35.532857898096154,174.46147597002457</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -15597,7 +15599,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-35.53283776159301,174.46150170001835</t>
+          <t>-35.53282348524549,174.46151994201853</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -15639,7 +15641,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-35.53292553925249,174.46138953945575</t>
+          <t>-35.53293177345747,174.46138157349736</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -15681,7 +15683,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-35.53293395542909,174.46137878541165</t>
+          <t>-35.53292659906737,174.4613881852429</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -15723,7 +15725,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-35.53294654852126,174.46136269417113</t>
+          <t>-35.53293183579952,174.4613814938378</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -15757,7 +15759,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-35.53292728482993,174.46138730898753</t>
+          <t>-35.532923045570364,174.46139272583872</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -15795,7 +15797,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-35.53287130164797,174.46145884324136</t>
+          <t>-35.53285259901689,174.46148274107682</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -15821,7 +15823,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-35.532900103690984,174.46142204055306</t>
+          <t>-35.53289318372059,174.4614308827598</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -15889,7 +15891,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-35.53284910785859,174.46148720200486</t>
+          <t>-35.53286712472743,174.46146418042557</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -15931,7 +15933,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-35.53278402266418,174.4615703663784</t>
+          <t>-35.5327971768602,174.46155355826394</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -15973,7 +15975,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-35.53290802113382,174.4614119237921</t>
+          <t>-35.532923856017064,174.46139169026426</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -16011,7 +16013,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-35.533012319340514,174.46127865320435</t>
+          <t>-35.533002531648684,174.46129115978349</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -16053,7 +16055,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-35.53281974471733,174.46152472158084</t>
+          <t>-35.532822861824144,174.4615207386123</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -16089,7 +16091,11 @@
           <t>-35.53205605946047,174.46097407924887</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-35.532577794502075,174.46183387865787</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>-35.5330332082042,174.46256204980844</t>
@@ -16129,7 +16135,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-35.53298650975556,174.46131163232997</t>
+          <t>-35.532974914142116,174.4613264490317</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -16243,7 +16249,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-35.53296194700245,174.46134301824148</t>
+          <t>-35.53295190993611,174.46135584344344</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -16319,7 +16325,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-35.53287223677941,174.4614576483493</t>
+          <t>-35.53286756112212,174.46146362280933</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -16361,7 +16367,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-35.532707715814695,174.4616678692656</t>
+          <t>-35.532725545689864,174.4616450867448</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -16403,7 +16409,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-35.5328099570011,174.46153722810007</t>
+          <t>-35.532827537484145,174.4615147641589</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -16445,7 +16451,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-35.53293800766195,174.46137360753778</t>
+          <t>-35.53295134885782,174.4613565603801</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -16479,7 +16485,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-35.53293476587568,174.4613777498369</t>
+          <t>-35.53294947859685,174.4613589501689</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -16521,7 +16527,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-35.53299897815516,174.4612957003879</t>
+          <t>-35.53299854176121,174.46129625800594</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -16563,7 +16569,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-35.53302229405703,174.4612659076429</t>
+          <t>-35.53300826711156,174.4612838310878</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -16605,7 +16611,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-35.53295920395339,174.46134652326595</t>
+          <t>-35.53296300681682,174.4613416640274</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -16639,7 +16645,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-35.53277435962777,174.46158271356796</t>
+          <t>-35.53278551887617,174.46156845455522</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -16681,7 +16687,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-35.532834457460424,174.4615059219666</t>
+          <t>-35.53283981888305,174.46149907125798</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -16723,7 +16729,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-35.532846738858225,174.46149022906297</t>
+          <t>-35.53283140269619,174.46150982527686</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -16799,7 +16805,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-35.53292678609353,174.46138794626415</t>
+          <t>-35.53292167404515,174.4613944783493</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -16875,7 +16881,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-35.532955899825986,174.4613507452269</t>
+          <t>-35.532972794513675,174.4613291574606</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -16951,7 +16957,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-35.53288676248625,174.461439087689</t>
+          <t>-35.53287273551617,174.46145701107352</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -16993,7 +16999,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-35.532777726105095,174.46157841196677</t>
+          <t>-35.532756155710715,174.46160597407186</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -17031,7 +17037,7 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-35.53290658726628,174.46141375596156</t>
+          <t>-35.53291637497027,174.4614012494123</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -17073,7 +17079,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-35.53294043900155,174.46137050081322</t>
+          <t>-35.53294848112433,174.46136022472288</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -17111,7 +17117,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-35.53291575154967,174.4614020460079</t>
+          <t>-35.53291350723546,174.46140491375186</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -17153,7 +17159,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-35.53293763360968,174.4613740854954</t>
+          <t>-35.532923856017064,174.46139169026426</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -17191,7 +17197,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-35.532899106217805,174.46142331510546</t>
+          <t>-35.53289467993044,174.46142897093142</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -17233,7 +17239,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-35.53287098993749,174.4614592415387</t>
+          <t>-35.53288969256411,174.46143534369233</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -17271,7 +17277,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-35.53281089213327,174.46153603320982</t>
+          <t>-35.53282672703642,174.46151579973085</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -17351,7 +17357,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-35.53282030579657,174.46152400464652</t>
+          <t>-35.53283345998639,174.4615071965169</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -17393,7 +17399,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>-35.532855529096054,174.4614789970833</t>
+          <t>-35.53285397054333,174.46148098856926</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -17435,7 +17441,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-35.53299230756163,174.46130422397752</t>
+          <t>-35.53298831767361,174.46130932219867</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -17477,7 +17483,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>-35.53293214750975,174.46138109553985</t>
+          <t>-35.53291413065609,174.46140411715635</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -17519,7 +17525,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>-35.53283925780395,174.46149978819264</t>
+          <t>-35.532851975595776,174.46148353767114</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -17583,7 +17589,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>-35.53291674902262,174.46140077145492</t>
+          <t>-35.53291363191959,174.46140475443278</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -17625,7 +17631,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>-35.53279374804154,174.46155793952653</t>
+          <t>-35.53280490728714,174.4615436805069</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -17735,7 +17741,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>-35.53287734883106,174.4614511162722</t>
+          <t>-35.53286999246394,174.4614605160902</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -17769,7 +17775,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>-35.53287485514736,174.46145430265136</t>
+          <t>-35.532865503832824,174.46146625157152</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -17811,7 +17817,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>-35.53292416772733,174.4613912919664</t>
+          <t>-35.53290989139579,174.46140953400578</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -17853,7 +17859,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>-35.532822238402794,174.46152153520603</t>
+          <t>-35.53283807330363,174.46150130172134</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -17895,7 +17901,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>-35.53284312301541,174.4614948493092</t>
+          <t>-35.53282173966571,174.461522172481</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -17937,7 +17943,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>-35.532993866111575,174.46130223248474</t>
+          <t>-35.533009015215384,174.46128287517092</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -17979,7 +17985,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>-35.532789820485455,174.4615629580632</t>
+          <t>-35.532808273763145,174.46153937890244</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -18021,7 +18027,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>-35.532875229199924,174.4614538246945</t>
+          <t>-35.53287790990988,174.46145039933685</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -18063,7 +18069,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>-35.532876974778496,174.4614515942291</t>
+          <t>-35.53287410704225,174.46145525856508</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -18105,7 +18111,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>-35.53287790990988,174.46145039933685</t>
+          <t>-35.53289505398291,174.46142849297433</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -18139,7 +18145,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>-35.53306007328413,174.4612176338002</t>
+          <t>-35.533075409400766,174.46119803747487</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -18181,7 +18187,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>-35.53292971616988,174.4613842022638</t>
+          <t>-35.53291949207319,174.46139726643418</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -18223,7 +18229,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>-35.53291113823707,174.4614079408148</t>
+          <t>-35.5329029090842,174.4614184558742</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -18265,7 +18271,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>-35.53278626698214,174.4615674986436</t>
+          <t>-35.53279848604546,174.46155188541812</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -18307,7 +18313,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>-35.53280920889534,174.46153818401226</t>
+          <t>-35.53281880958525,174.46152591647134</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -18349,7 +18355,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>-35.53274530816908,174.4616198347781</t>
+          <t>-35.53275646742167,174.46160557577565</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -18391,7 +18397,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>-35.53283345998639,174.4615071965169</t>
+          <t>-35.53282834793185,174.4615137285869</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -18455,7 +18461,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>-35.53284069167274,174.46149795602625</t>
+          <t>-35.53284935722704,174.46148688336717</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -18497,7 +18503,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>-35.53287304722663,174.46145661277615</t>
+          <t>-35.532848546779555,174.4614879189397</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -18539,7 +18545,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>-35.53295988971567,174.46134564700984</t>
+          <t>-35.53297079956918,174.46133170657</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -18581,7 +18587,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>-35.53295907926933,174.46134668258523</t>
+          <t>-35.53297266982963,174.46132931677994</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -18623,7 +18629,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>-35.533021920005176,174.4612663856015</t>
+          <t>-35.533012568708436,174.46127833456538</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -18665,7 +18671,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>-35.53290677429248,174.46141351698296</t>
+          <t>-35.532901412874494,174.46142036770294</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -18707,7 +18713,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>-35.532929529143736,174.46138444124253</t>
+          <t>-35.53292373133296,174.46139184958344</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -18749,7 +18755,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>-35.53287497983155,174.46145414333242</t>
+          <t>-35.53286675067483,174.46146465838234</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -18791,7 +18797,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>-35.53277741439425,174.4615788102632</t>
+          <t>-35.5327949948847,174.4615563463402</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -18863,7 +18869,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>-35.53290739771315,174.46141272038753</t>
+          <t>-35.53288601438123,174.461440043603</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -18901,7 +18907,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>-35.53287161335845,174.46145844494401</t>
+          <t>-35.532860267096176,174.46147294296563</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -18943,7 +18949,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>-35.53293233453589,174.46138085656105</t>
+          <t>-35.53292323259653,174.46139248686</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -18985,7 +18991,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>-35.532919554415244,174.4613971867746</t>
+          <t>-35.53293358137682,174.4613792633692</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -19023,7 +19029,7 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>-35.533049786862755,174.46123077767277</t>
+          <t>-35.53306580874274,174.46121030509403</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -19099,7 +19105,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>-35.53292441709556,174.46139097332812</t>
+          <t>-35.53290284674213,174.46141853553374</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -19129,7 +19135,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>-35.532888508064566,174.46143685722294</t>
+          <t>-35.53289829577085,174.46142435067927</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -19197,7 +19203,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>-35.53288059061972,174.46144697397895</t>
+          <t>-35.53289106408989,174.46143359118315</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -19239,7 +19245,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>-35.53286837156941,174.4614625872363</t>
+          <t>-35.53285191325366,174.46148361733057</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -19281,7 +19287,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>-35.53287385767387,174.46145557720297</t>
+          <t>-35.53288545330248,174.4614407605385</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -19323,7 +19329,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>-35.53294885517653,174.46135974676514</t>
+          <t>-35.53294149881622,174.46136914659985</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -19365,7 +19371,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>-35.53295321911875,174.4613541705912</t>
+          <t>-35.53295814413895,174.46134787747988</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -19407,7 +19413,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>-35.53292429241144,174.46139113264726</t>
+          <t>-35.5329191803629,174.461397664732</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -19445,7 +19451,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>-35.53296325618491,174.4613413453888</t>
+          <t>-35.53295727135058,174.46134899271482</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -19483,7 +19489,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>-35.53292048954609,174.4613959918811</t>
+          <t>-35.53291244742041,174.46140626796426</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -19525,7 +19531,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>-35.53267411334643,174.46171080552742</t>
+          <t>-35.53269194322936,174.4616880230256</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -19567,7 +19573,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>-35.53273358783502,174.46163481070937</t>
+          <t>-35.53274960978061,174.46161433829158</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -19643,7 +19649,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>-35.532840005909414,174.46149883227974</t>
+          <t>-35.53285490567498,174.4614797936777</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -19681,7 +19687,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>-35.53294224692069,174.46136819068457</t>
+          <t>-35.532937571267645,174.46137416515498</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -19723,7 +19729,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>-35.53289810874462,174.46142458965784</t>
+          <t>-35.532896550192746,174.4614265811459</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -19761,7 +19767,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>-35.53293065130061,174.46138300736996</t>
+          <t>-35.53293040193242,174.4613833260083</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -19803,7 +19809,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>-35.53299218287762,174.46130438329695</t>
+          <t>-35.533008454137516,174.46128359210857</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -19845,7 +19851,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>-35.5328604541225,174.46147270398725</t>
+          <t>-35.53286157628037,174.4614712701172</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -19887,7 +19893,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>-35.53276332506213,174.46159681325824</t>
+          <t>-35.53277710268338,174.4615792085596</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -19929,7 +19935,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>-35.53294399249776,174.4613659602154</t>
+          <t>-35.53293663613701,174.461375360049</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -19971,7 +19977,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>-35.53289436822006,174.461429369229</t>
+          <t>-35.53288189980358,174.4614453011297</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -20013,7 +20019,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>-35.53298133536913,174.4613182440845</t>
+          <t>-35.532993554401585,174.4613026307833</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -20055,7 +20061,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>-35.53288875743291,174.4614365385849</t>
+          <t>-35.53287429406851,174.46145501958665</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -20097,7 +20103,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>-35.532887635275415,174.461437972456</t>
+          <t>-35.53288208682982,174.4614450621512</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -20139,7 +20145,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>-35.53302615925933,174.46126096873698</t>
+          <t>-35.533029962119464,174.4612561094904</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -20181,7 +20187,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>-35.53289623848236,174.4614269794435</t>
+          <t>-35.53289181219484,174.46143263526906</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -20223,7 +20229,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>-35.53276139245443,174.4615992826951</t>
+          <t>-35.532772551704696,174.46158502368695</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -20265,7 +20271,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>-35.533079586310045,174.461192700263</t>
+          <t>-35.533095608183864,174.46117222766915</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -20307,7 +20313,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>-35.533058577077476,174.46121954563642</t>
+          <t>-35.53307035970415,174.46120448992428</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -20345,7 +20351,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>-35.53300920224133,174.46128263619167</t>
+          <t>-35.533011010158866,174.46128032605907</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -20383,7 +20389,7 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>-35.53297397901192,174.46132764392684</t>
+          <t>-35.53298931514565,174.46130804764343</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -20425,7 +20431,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>-35.532879156751676,174.46144880614716</t>
+          <t>-35.53286269843824,174.46146983624706</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -20467,7 +20473,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>-35.5328679351747,174.46146314485256</t>
+          <t>-35.53285989304356,174.4614734209223</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -20509,7 +20515,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>-35.53296774481036,174.46133560989352</t>
+          <t>-35.53297597395632,174.4613250948172</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -20543,7 +20549,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>-35.53284418283142,174.46149349509912</t>
+          <t>-35.53283084161703,174.46151054221139</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -20585,7 +20591,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>-35.53295970268959,174.46134588598878</t>
+          <t>-35.53297329324978,174.46132852018323</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -20683,7 +20689,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>-35.53291880631055,174.46139814268938</t>
+          <t>-35.53290920563306,174.46141041026078</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -20725,7 +20731,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>-35.53290135053242,174.46142044736249</t>
+          <t>-35.532880652961815,174.46144689431947</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -20767,7 +20773,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>-35.53290241034764,174.46141909315045</t>
+          <t>-35.53292067657227,174.46139575290238</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -20809,7 +20815,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>-35.53289324606266,174.46143080310028</t>
+          <t>-35.53288769761749,174.46143789279648</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -20851,7 +20857,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>-35.53294648617922,174.46136277383076</t>
+          <t>-35.53295895458529,174.4613468419045</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -20893,7 +20899,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>-35.5327311564889,174.46163791741796</t>
+          <t>-35.5327405078197,174.46162596853773</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -20935,7 +20941,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>-35.53285852151723,174.46147517343013</t>
+          <t>-35.53283202611747,174.46150902868297</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -20977,7 +20983,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>-35.532903657189046,174.4614174999598</t>
+          <t>-35.53290746005522,174.46141264072799</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -21019,7 +21025,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>-35.53262854114443,174.46176903628154</t>
+          <t>-35.53264300455483,174.46175055539268</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -21061,7 +21067,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>-35.53278707743029,174.46156646307267</t>
+          <t>-35.53276594343378,174.46159346756934</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -21103,7 +21109,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>-35.532903657189046,174.4614174999598</t>
+          <t>-35.53291899333672,174.4613979037107</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -21145,7 +21151,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>-35.53292260917598,174.46139328345575</t>
+          <t>-35.53292460412171,174.46139073434938</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -21187,7 +21193,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>-35.5329103901323,174.4614088967294</t>
+          <t>-35.532899230901954,174.4614231557864</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -21229,7 +21235,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>-35.53296637328594,174.46133736240606</t>
+          <t>-35.53298127302712,174.4613183237442</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -21263,7 +21269,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>-35.532879967198845,174.46144777057384</t>
+          <t>-35.53285727467508,174.461476766619</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -21305,7 +21311,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>-35.53290814581795,174.46141176447304</t>
+          <t>-35.53289143814238,174.4614331132261</t>
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
@@ -21343,7 +21349,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>-35.53288938085371,174.46143574198985</t>
+          <t>-35.53290783410762,174.46141216277073</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -21385,7 +21391,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>-35.53288077764599,174.4614467350005</t>
+          <t>-35.53287117696378,174.4614590025603</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -21427,7 +21433,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>-35.53289443056215,174.46142928956948</t>
+          <t>-35.53290022837512,174.46142188123397</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21469,7 +21475,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-35.532849855963946,174.46148624609174</t>
+          <t>-35.53284430751567,174.46149333578032</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21545,7 +21551,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>-35.5328506040693,174.4614852901786</t>
+          <t>-35.53286020475407,174.46147302262509</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -21587,7 +21593,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>-35.53282903369528,174.46151285233367</t>
+          <t>-35.532822113718524,174.46152169452478</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -21629,7 +21635,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>-35.532718438677186,174.46165416789069</t>
+          <t>-35.53273402423046,174.46163425309499</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -21671,7 +21677,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>-35.532735333416795,174.4616325802518</t>
+          <t>-35.53271818930829,174.46165448652735</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -21713,7 +21719,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>-35.5327794716859,174.46157618150673</t>
+          <t>-35.53276076903258,174.46160007928762</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -21755,7 +21761,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>-35.53279904712485,174.46155116848416</t>
+          <t>-35.532788823010854,174.46156423261212</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -21789,7 +21795,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>-35.53281058042255,174.4615364315066</t>
+          <t>-35.53280989465894,174.46153730775941</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -21831,7 +21837,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>-35.532949042202624,174.46135950778628</t>
+          <t>-35.532949727965004,174.46135863153043</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -21873,7 +21879,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>-35.53287759819941,174.46145079763426</t>
+          <t>-35.53289231093149,174.46143199799297</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -21915,7 +21921,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>-35.53292335728064,174.46139232754086</t>
+          <t>-35.532938070003986,174.46137352787818</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -21995,7 +22001,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>-35.53271083292603,174.46166388630814</t>
+          <t>-35.53272598208536,174.46164452913052</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -22075,7 +22081,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>-35.53297148533136,174.46133083031364</t>
+          <t>-35.53298214581522,174.46131720850855</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -22117,7 +22123,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>-35.5327779754738,174.46157809332962</t>
+          <t>-35.53276307569339,174.46159713189525</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -22159,7 +22165,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>-35.53280602944582,174.4615422466388</t>
+          <t>-35.53280316170692,174.46154591096834</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -22201,7 +22207,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>-35.532802413601104,174.46154686688035</t>
+          <t>-35.532782838163016,174.461571879905</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -22239,7 +22245,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>-35.53276955928021,174.461588847332</t>
+          <t>-35.532771554229875,174.46158629823535</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -22281,7 +22287,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>-35.53279368569939,174.46155801918584</t>
+          <t>-35.53278857364221,174.46156455124935</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -22391,7 +22397,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>-35.532944678260165,174.46136508395966</t>
+          <t>-35.532928219960695,174.46138611409378</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -22429,7 +22435,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>-35.532898358112924,174.46142427101975</t>
+          <t>-35.53291394362991,174.461404356135</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -22471,7 +22477,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>-35.53283134035406,174.46150990493626</t>
+          <t>-35.532821552639305,174.46152241145913</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -22513,7 +22519,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>-35.53286837156941,174.4614625872363</t>
+          <t>-35.53286126456985,174.46147166841445</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -22589,7 +22595,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>-35.53267068452232,174.4617151867766</t>
+          <t>-35.532685397293804,174.461696387232</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -22631,7 +22637,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>-35.53276768901483,174.46159123710999</t>
+          <t>-35.53278059384495,174.46157474763953</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -22665,7 +22671,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>-35.532880154225104,174.46144753159538</t>
+          <t>-35.53286612725382,174.46146545497695</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -22707,7 +22713,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>-35.53278657869296,174.46156710034708</t>
+          <t>-35.532761891191896,174.46159864542108</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -22749,7 +22755,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>-35.532818248506,174.4615266334056</t>
+          <t>-35.532806652867315,174.4615414500454</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -22791,7 +22797,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>-35.53276388614178,174.4615960963249</t>
+          <t>-35.53274960978061,174.46161433829158</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -22833,7 +22839,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>-35.53279505722687,174.46155626668084</t>
+          <t>-35.532794184436646,174.4615573819113</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -22875,7 +22881,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-35.53285259901689,174.46148274107682</t>
+          <t>-35.532828534958234,174.46151348960873</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -22917,7 +22923,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>-35.53283127801193,174.46150998459566</t>
+          <t>-35.53281968237519,174.46152480124022</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -22959,7 +22965,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>-35.53276625514468,174.46159306927305</t>
+          <t>-35.53276556938069,174.46159394552492</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -23001,7 +23007,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>-35.532745370511265,174.4616197551189</t>
+          <t>-35.53274624330205,174.4616186398898</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -23073,7 +23079,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-35.532917746495556,174.46139949690195</t>
+          <t>-35.532932459219985,174.46138069724188</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -23115,7 +23121,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>-35.53296824354649,174.46133497261624</t>
+          <t>-35.53296045079387,174.461344930073</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -23157,7 +23163,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>-35.53299480124153,174.46130103758904</t>
+          <t>-35.5330123816825,174.46127857354463</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -23199,7 +23205,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>-35.53294854346636,174.46136014506325</t>
+          <t>-35.53293364371886,174.46137918370962</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -23237,7 +23243,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>-35.53302023677185,174.46126853641522</t>
+          <t>-35.53303339092763,174.46125172820206</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -23279,7 +23285,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>-35.53289031598493,174.46143454709727</t>
+          <t>-35.53288165043522,174.46144561976766</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -23355,7 +23361,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>-35.532733400808404,174.46163504968698</t>
+          <t>-35.53274586924885,174.46161911784512</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -23397,7 +23403,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>-35.53289436822006,174.461429369229</t>
+          <t>-35.532874356410616,174.46145493992717</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -23439,7 +23445,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>-35.532924541779664,174.46139081400898</t>
+          <t>-35.532926349699174,174.4613885038812</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -23481,7 +23487,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>-35.532931399405186,174.4613820514549</t>
+          <t>-35.532934080113165,174.46137862609245</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -23545,7 +23551,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>-35.53296119889816,174.46134397415727</t>
+          <t>-35.53297098659523,174.46133146759098</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -23587,7 +23593,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>-35.532937820635816,174.46137384651658</t>
+          <t>-35.532917310101155,174.4614000545189</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -23663,7 +23669,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>-35.53296793183641,174.46133537091455</t>
+          <t>-35.53296768246833,174.46133568955318</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -23705,7 +23711,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>-35.53287666306805,174.4614519925265</t>
+          <t>-35.532869556069265,174.46146107370646</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -23743,7 +23749,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>-35.53297971447693,174.46132031523635</t>
+          <t>-35.53299554934547,174.46130008167245</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -23785,7 +23791,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>-35.5328708652533,174.46145940085765</t>
+          <t>-35.53286999246394,174.4614605160902</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -23827,7 +23833,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>-35.532952533356415,174.46135504684713</t>
+          <t>-35.53296568752372,174.46133823866228</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -23865,7 +23871,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>-35.53285764872773,174.46147628866234</t>
+          <t>-35.53285852151723,174.46147517343013</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -23907,7 +23913,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>-35.5329629444748,174.46134174368706</t>
+          <t>-35.53297584927229,174.46132525413657</t>
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
@@ -23945,7 +23951,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>-35.53286525446441,174.46146657020938</t>
+          <t>-35.53284524264743,174.46149214088905</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -23987,7 +23993,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>-35.53281413392474,174.46153189092345</t>
+          <t>-35.532800106941465,174.4615498142756</t>
         </is>
       </c>
       <c r="G265" t="inlineStr"/>
@@ -24025,7 +24031,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>-35.53284119040971,174.46149731875096</t>
+          <t>-35.53286145159616,174.46147142943607</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -24067,7 +24073,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>-35.532963380868964,174.4613411860695</t>
+          <t>-35.532959141611364,174.46134660292557</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -24109,7 +24115,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>-35.532971734699416,174.46133051167496</t>
+          <t>-35.53295346848687,174.46135385195265</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -24173,7 +24179,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>-35.53295858053313,174.46134731986237</t>
+          <t>-35.532959266295414,174.4613464436063</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -24215,7 +24221,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>-35.53290527808285,174.46141542881188</t>
+          <t>-35.53289393182551,174.4614299268456</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -24257,7 +24263,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>-35.53291344489341,174.46140499341143</t>
+          <t>-35.53291369426165,174.4614046747732</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -24299,7 +24305,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>-35.53290259737385,174.46141885417188</t>
+          <t>-35.532895926771985,174.46142737774107</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -24371,7 +24377,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>-35.53289761000803,174.46142522693404</t>
+          <t>-35.53290515339871,174.46141558813096</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -24413,7 +24419,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>-35.532790693275714,174.46156184283288</t>
+          <t>-35.532807587999514,174.46154025515523</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -24485,7 +24491,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>-35.53288252322446,174.46144450453477</t>
+          <t>-35.53287161335845,174.46145844494401</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -24527,7 +24533,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>-35.533047168500715,174.46123412338522</t>
+          <t>-35.533039625123905,174.46124376222235</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -24569,7 +24575,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>-35.53298133536913,174.4613182440845</t>
+          <t>-35.53298488886345,174.4613137034821</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -24611,7 +24617,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>-35.532811141501845,174.46153571457242</t>
+          <t>-35.53282473208819,174.46151834883102</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -24653,7 +24659,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>-35.53285671359611,174.46147748355395</t>
+          <t>-35.532868745622,174.46146210927952</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -24695,7 +24701,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>-35.532856900622434,174.46147724457566</t>
+          <t>-35.53284218788363,174.4614960442004</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -24759,7 +24765,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>-35.532692317282816,174.46168754507093</t>
+          <t>-35.532711705717176,174.46166277108</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -24827,7 +24833,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>-35.53278383563768,174.46157060535626</t>
+          <t>-35.53279031922275,174.46156232078874</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -24937,7 +24943,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>-35.53283832267212,174.4615009830837</t>
+          <t>-35.53282940774805,174.46151237437732</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -24979,7 +24985,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>-35.532754908866934,174.4616075672567</t>
+          <t>-35.53276089371695,174.46159991996913</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -25021,7 +25027,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>-35.53285471864864,174.46148003265603</t>
+          <t>-35.53282778685268,174.46151444552135</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -25063,7 +25069,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>-35.53280584241937,174.4615424856168</t>
+          <t>-35.532796740465095,174.46155411587918</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -25105,7 +25111,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>-35.532834021065526,174.46150647958234</t>
+          <t>-35.53284449454201,174.46149309680206</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -25147,7 +25153,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>-35.53288214917191,174.4614449824917</t>
+          <t>-35.5328645687013,174.46146744646342</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -25189,7 +25195,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>-35.532835891329306,174.4615040898004</t>
+          <t>-35.53285016767452,174.4614858477946</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -25231,7 +25237,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>-35.532822487771334,174.4615212165685</t>
+          <t>-35.53280777502597,174.4615400161772</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -25273,7 +25279,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>-35.532857399359294,174.46147660730009</t>
+          <t>-35.53284717525303,174.461489671447</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -25315,7 +25321,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>-35.53288277259278,174.4614441858968</t>
+          <t>-35.53287005480604,174.46146043643074</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -25357,7 +25363,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>-35.532822799482005,174.46152081827165</t>
+          <t>-35.53280253828542,174.4615467075617</t>
         </is>
       </c>
       <c r="G300" t="inlineStr"/>
@@ -25395,7 +25401,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>-35.53284237490998,174.46149580522214</t>
+          <t>-35.53284748696361,174.4614892731499</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -25437,7 +25443,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>-35.532857960438264,174.4614758903651</t>
+          <t>-35.53285216262211,174.46148329869283</t>
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
@@ -25475,7 +25481,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>-35.53276257695594,174.46159776916932</t>
+          <t>-35.53276968396456,174.46158868801345</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -25517,7 +25523,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>-35.532796366412164,174.46155459383513</t>
+          <t>-35.53280683989375,174.46154121106736</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -25559,7 +25565,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>-35.53271550859281,174.46165791187138</t>
+          <t>-35.532728662800494,174.46164110378558</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -25601,7 +25607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>-35.53280746331522,174.46154041447392</t>
+          <t>-35.532816565268234,174.46152878420844</t>
         </is>
       </c>
       <c r="G306" t="inlineStr"/>
@@ -25639,7 +25645,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>-35.532923045570364,174.46139272583872</t>
+          <t>-35.53291612560202,174.46140156805052</t>
         </is>
       </c>
       <c r="G307" t="inlineStr"/>
@@ -25677,7 +25683,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>-35.532781653661814,174.4615733934316</t>
+          <t>-35.532792127145406,174.4615600106687</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -25719,7 +25725,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>-35.532905589793195,174.4614150305142</t>
+          <t>-35.532888009327905,174.46143749449897</t>
         </is>
       </c>
       <c r="G309" t="inlineStr"/>
@@ -25757,7 +25763,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>-35.53284156446243,174.46149684079452</t>
+          <t>-35.532857399359294,174.46147660730009</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -25799,7 +25805,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>-35.532892497957725,174.46143175901443</t>
+          <t>-35.532881837461495,174.46144538078917</t>
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
@@ -25837,7 +25843,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>-35.53289929324403,174.4614230761269</t>
+          <t>-35.53288925616955,174.46143590130887</t>
         </is>
       </c>
       <c r="G312" t="inlineStr"/>
@@ -25875,7 +25881,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>-35.53289630082444,174.46142689978396</t>
+          <t>-35.53289916855987,174.46142323544595</t>
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
@@ -25913,7 +25919,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>-35.53299118540564,174.46130565785228</t>
+          <t>-35.532988941093635,174.46130852560168</t>
         </is>
       </c>
       <c r="G314" t="inlineStr"/>
@@ -25951,7 +25957,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>-35.53289972963854,174.4614225185102</t>
+          <t>-35.53291556452348,174.46140228498655</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -25993,7 +25999,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>-35.532912011025964,174.46140682558112</t>
+          <t>-35.532908893922745,174.46141080855853</t>
         </is>
       </c>
       <c r="G316" t="inlineStr"/>

--- a/data/nzd0087/nzd0087.xlsx
+++ b/data/nzd0087/nzd0087.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9925,6 +9925,36 @@
       <c r="H316" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>275.39</v>
+      </c>
+      <c r="C317" t="n">
+        <v>272.58</v>
+      </c>
+      <c r="D317" t="n">
+        <v>276.02</v>
+      </c>
+      <c r="E317" t="n">
+        <v>283.86</v>
+      </c>
+      <c r="F317" t="n">
+        <v>272.94</v>
+      </c>
+      <c r="G317" t="n">
+        <v>321.96</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -9939,7 +9969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13157,6 +13187,16 @@
       </c>
       <c r="B321" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -13324,34 +13364,34 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0446</v>
+        <v>0.0444</v>
       </c>
       <c r="H2" t="n">
         <v>0.0561</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6129905917476095</v>
+        <v>0.6204177831053556</v>
       </c>
       <c r="J2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2514823705204536</v>
+        <v>0.2561797457792481</v>
       </c>
       <c r="M2" t="n">
-        <v>6.258251953283512</v>
+        <v>6.276840863747385</v>
       </c>
       <c r="N2" t="n">
-        <v>54.92876675403276</v>
+        <v>55.1217059644595</v>
       </c>
       <c r="O2" t="n">
-        <v>7.411394386620696</v>
+        <v>7.424399367252512</v>
       </c>
       <c r="P2" t="n">
-        <v>248.5529595071809</v>
+        <v>248.4725748606334</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -13402,34 +13442,34 @@
         <v>0.035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0344</v>
+        <v>0.0343</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0409</v>
+        <v>0.0407</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4876026086673678</v>
+        <v>0.4907189645905097</v>
       </c>
       <c r="J3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K3" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2150940211599172</v>
+        <v>0.2182531579528926</v>
       </c>
       <c r="M3" t="n">
-        <v>5.195869039794013</v>
+        <v>5.193824711137345</v>
       </c>
       <c r="N3" t="n">
-        <v>42.61074052430838</v>
+        <v>42.54046660096461</v>
       </c>
       <c r="O3" t="n">
-        <v>6.527690290164537</v>
+        <v>6.522305313381505</v>
       </c>
       <c r="P3" t="n">
-        <v>255.3012410567729</v>
+        <v>255.2675126717977</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -13480,34 +13520,34 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0428</v>
+        <v>0.0427</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0497</v>
+        <v>0.0495</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5164350836987671</v>
+        <v>0.5149831776214638</v>
       </c>
       <c r="J4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K4" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2245865914924839</v>
+        <v>0.2248390596875585</v>
       </c>
       <c r="M4" t="n">
-        <v>5.426473660778285</v>
+        <v>5.416174746742719</v>
       </c>
       <c r="N4" t="n">
-        <v>45.22501309604471</v>
+        <v>45.09591167329341</v>
       </c>
       <c r="O4" t="n">
-        <v>6.724954505128247</v>
+        <v>6.715348961393846</v>
       </c>
       <c r="P4" t="n">
-        <v>264.6441783162397</v>
+        <v>264.6598923259135</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -13561,31 +13601,31 @@
         <v>0.0535</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0641</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4902889437773144</v>
+        <v>0.4872976034660071</v>
       </c>
       <c r="J5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2250022217348685</v>
+        <v>0.2239028428918892</v>
       </c>
       <c r="M5" t="n">
-        <v>5.166310627097578</v>
+        <v>5.16433260610208</v>
       </c>
       <c r="N5" t="n">
-        <v>40.66451464630472</v>
+        <v>40.5953229872048</v>
       </c>
       <c r="O5" t="n">
-        <v>6.376873422477878</v>
+        <v>6.371445910247123</v>
       </c>
       <c r="P5" t="n">
-        <v>275.4097942911336</v>
+        <v>275.4421696295415</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -13642,28 +13682,28 @@
         <v>0.041</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4572534746460447</v>
+        <v>0.4528024977416339</v>
       </c>
       <c r="J6" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K6" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1497232169039635</v>
+        <v>0.1478946644069582</v>
       </c>
       <c r="M6" t="n">
-        <v>6.121028087902112</v>
+        <v>6.122856370132117</v>
       </c>
       <c r="N6" t="n">
-        <v>58.31535748130106</v>
+        <v>58.26253428045168</v>
       </c>
       <c r="O6" t="n">
-        <v>7.636449271834461</v>
+        <v>7.632989865082469</v>
       </c>
       <c r="P6" t="n">
-        <v>267.4788179257618</v>
+        <v>267.5269909413767</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -13720,28 +13760,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07648535746506889</v>
+        <v>0.07023598391922287</v>
       </c>
       <c r="J7" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K7" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009516890623462948</v>
+        <v>0.008027003925686782</v>
       </c>
       <c r="M7" t="n">
-        <v>4.406363843447865</v>
+        <v>4.42203744470385</v>
       </c>
       <c r="N7" t="n">
-        <v>29.90242018741883</v>
+        <v>30.06745579679322</v>
       </c>
       <c r="O7" t="n">
-        <v>5.468310542335615</v>
+        <v>5.483379961008832</v>
       </c>
       <c r="P7" t="n">
-        <v>329.0677381187945</v>
+        <v>329.1353752186656</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -13779,7 +13819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27059,6 +27099,48 @@
         </is>
       </c>
     </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-35.52961950312076,174.46033497836106</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-35.53038206615793,174.46028206731236</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-35.53122128503256,174.46038257237322</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-35.532132106703216,174.46080498943815</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-35.53289125111614,174.46143335220464</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-35.533107813183996,174.46247351364636</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
